--- a/output/Butzi.xlsx
+++ b/output/Butzi.xlsx
@@ -38,8 +38,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00F2EEAC"/>
+        <bgColor rgb="00F2EEAC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00762CBF"/>
+        <bgColor rgb="00762CBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0017BF60"/>
+        <bgColor rgb="0017BF60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9B29C"/>
+        <bgColor rgb="00D9B29C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000BD9D9"/>
+        <bgColor rgb="000BD9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F24171"/>
+        <bgColor rgb="00F24171"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2CB05"/>
+        <bgColor rgb="00F2CB05"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00F28D9F"/>
         <bgColor rgb="00F28D9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAF205"/>
+        <bgColor rgb="00EAF205"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F24452"/>
+        <bgColor rgb="00F24452"/>
       </patternFill>
     </fill>
     <fill>
@@ -50,62 +104,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00762CBF"/>
-        <bgColor rgb="00762CBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F24171"/>
-        <bgColor rgb="00F24171"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F24452"/>
-        <bgColor rgb="00F24452"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2CB05"/>
-        <bgColor rgb="00F2CB05"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0017BF60"/>
-        <bgColor rgb="0017BF60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EAF205"/>
-        <bgColor rgb="00EAF205"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000BD9D9"/>
-        <bgColor rgb="000BD9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="007216F2"/>
         <bgColor rgb="007216F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9B29C"/>
-        <bgColor rgb="00D9B29C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2EEAC"/>
-        <bgColor rgb="00F2EEAC"/>
       </patternFill>
     </fill>
   </fills>
@@ -725,172 +725,180 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021-04-08</t>
+          <t>2021-04-01</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+          <t>marzuk</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n"/>
       <c r="D2" s="1" t="n"/>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
       </c>
-      <c r="F2" s="1" t="n"/>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
       <c r="K2" s="1" t="n"/>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
       <c r="N2" s="1" t="n"/>
       <c r="O2" s="1" t="n"/>
       <c r="P2" s="1" t="n"/>
       <c r="Q2" s="1" t="n"/>
-      <c r="R2" s="1" t="n"/>
-      <c r="S2" s="1" t="n"/>
+      <c r="R2" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="S2" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="T2" s="1" t="n"/>
       <c r="U2" s="1" t="n"/>
-      <c r="V2" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="V2" s="1" t="n"/>
       <c r="W2" s="1" t="n"/>
-      <c r="X2" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="X2" s="1" t="n"/>
       <c r="Y2" s="1" t="n"/>
       <c r="Z2" s="1" t="n"/>
-      <c r="AA2" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="n"/>
+      <c r="AA2" s="1" t="n"/>
+      <c r="AB2" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="AC2" s="1" t="n"/>
       <c r="AD2" s="1" t="n"/>
       <c r="AE2" s="1" t="n"/>
-      <c r="AF2" s="1" t="n"/>
+      <c r="AF2" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="AG2" s="1" t="n"/>
-      <c r="AH2" s="9" t="inlineStr">
+      <c r="AH2" s="1" t="n"/>
+      <c r="AI2" s="10" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
       </c>
-      <c r="AI2" s="1" t="n"/>
-      <c r="AJ2" s="1" t="n"/>
+      <c r="AJ2" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
       <c r="AK2" s="1" t="n"/>
       <c r="AL2" s="1" t="n"/>
       <c r="AM2" s="1" t="n"/>
-      <c r="AN2" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="AO2" s="1" t="n"/>
+      <c r="AN2" s="1" t="n"/>
+      <c r="AO2" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AP2" s="1" t="n"/>
       <c r="AQ2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2021-04-12</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n"/>
+          <t>2021-04-02</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="F3" s="1" t="n"/>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="I3" s="1" t="n"/>
-      <c r="J3" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ftt </t>
-        </is>
-      </c>
+      <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="n"/>
       <c r="L3" s="1" t="n"/>
-      <c r="M3" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="M3" s="1" t="n"/>
       <c r="N3" s="1" t="n"/>
-      <c r="O3" s="1" t="n"/>
+      <c r="O3" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n"/>
-      <c r="R3" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
+      <c r="R3" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
         </is>
       </c>
       <c r="S3" s="1" t="n"/>
-      <c r="T3" s="1" t="n"/>
+      <c r="T3" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="U3" s="1" t="n"/>
       <c r="V3" s="1" t="n"/>
-      <c r="W3" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="W3" s="1" t="n"/>
       <c r="X3" s="1" t="n"/>
-      <c r="Y3" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="Y3" s="1" t="n"/>
       <c r="Z3" s="1" t="n"/>
-      <c r="AA3" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n"/>
-      <c r="AC3" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="AC3" s="1" t="n"/>
       <c r="AD3" s="1" t="n"/>
       <c r="AE3" s="1" t="n"/>
       <c r="AF3" s="1" t="n"/>
-      <c r="AG3" s="9" t="inlineStr">
+      <c r="AG3" s="1" t="n"/>
+      <c r="AH3" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="AI3" s="10" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
       </c>
-      <c r="AH3" s="1" t="n"/>
-      <c r="AI3" s="1" t="n"/>
       <c r="AJ3" s="1" t="n"/>
       <c r="AK3" s="1" t="n"/>
       <c r="AL3" s="1" t="n"/>
-      <c r="AM3" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="AM3" s="1" t="n"/>
       <c r="AN3" s="1" t="n"/>
       <c r="AO3" s="1" t="n"/>
       <c r="AP3" s="1" t="n"/>
@@ -899,56 +907,48 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
+          <t>2021-04-03</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
         </is>
       </c>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="K4" s="1" t="n"/>
       <c r="L4" s="1" t="n"/>
       <c r="M4" s="1" t="n"/>
       <c r="N4" s="1" t="n"/>
-      <c r="O4" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="O4" s="1" t="n"/>
       <c r="P4" s="1" t="n"/>
       <c r="Q4" s="1" t="n"/>
       <c r="R4" s="1" t="n"/>
       <c r="S4" s="1" t="n"/>
-      <c r="T4" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="U4" s="1" t="n"/>
-      <c r="V4" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="V4" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
         </is>
       </c>
       <c r="W4" s="1" t="n"/>
@@ -956,25 +956,33 @@
       <c r="Y4" s="1" t="n"/>
       <c r="Z4" s="1" t="n"/>
       <c r="AA4" s="1" t="n"/>
-      <c r="AB4" s="1" t="n"/>
+      <c r="AB4" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="AC4" s="1" t="n"/>
-      <c r="AD4" s="1" t="n"/>
+      <c r="AD4" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="AE4" s="1" t="n"/>
-      <c r="AF4" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="AG4" s="1" t="n"/>
+      <c r="AF4" s="1" t="n"/>
+      <c r="AG4" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="AH4" s="1" t="n"/>
       <c r="AI4" s="1" t="n"/>
-      <c r="AJ4" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="AJ4" s="1" t="n"/>
       <c r="AK4" s="1" t="n"/>
-      <c r="AL4" s="1" t="n"/>
+      <c r="AL4" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
       <c r="AM4" s="1" t="n"/>
       <c r="AN4" s="1" t="n"/>
       <c r="AO4" s="1" t="n"/>
@@ -984,63 +992,67 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2021-04-03</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+          <t>2021-04-04</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="10" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>marzuk</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>eo production</t>
         </is>
       </c>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="J5" s="6" t="inlineStr">
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="11" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="7" t="inlineStr">
+      <c r="K5" s="8" t="inlineStr">
         <is>
           <t>bakut night 1</t>
         </is>
       </c>
+      <c r="L5" s="1" t="n"/>
       <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
       <c r="O5" s="1" t="n"/>
-      <c r="P5" s="1" t="n"/>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
       </c>
+      <c r="Q5" s="1" t="n"/>
       <c r="R5" s="1" t="n"/>
       <c r="S5" s="1" t="n"/>
-      <c r="T5" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
         </is>
       </c>
       <c r="U5" s="1" t="n"/>
-      <c r="V5" s="1" t="n"/>
-      <c r="W5" s="1" t="n"/>
+      <c r="V5" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="W5" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="X5" s="1" t="n"/>
       <c r="Y5" s="1" t="n"/>
       <c r="Z5" s="1" t="n"/>
@@ -1052,99 +1064,99 @@
       <c r="AF5" s="1" t="n"/>
       <c r="AG5" s="1" t="n"/>
       <c r="AH5" s="1" t="n"/>
-      <c r="AI5" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AI5" s="1" t="n"/>
       <c r="AJ5" s="1" t="n"/>
       <c r="AK5" s="1" t="n"/>
       <c r="AL5" s="1" t="n"/>
       <c r="AM5" s="1" t="n"/>
       <c r="AN5" s="1" t="n"/>
-      <c r="AO5" s="1" t="n"/>
+      <c r="AO5" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="AP5" s="1" t="n"/>
       <c r="AQ5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2021-04-14</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+          <t>2021-04-05</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>equipment day</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>marzuk</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="8" t="inlineStr">
         <is>
           <t>bakut night 1</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="n"/>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n"/>
-      <c r="J6" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="K6" s="1" t="n"/>
       <c r="L6" s="1" t="n"/>
       <c r="M6" s="1" t="n"/>
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="n"/>
-      <c r="P6" s="1" t="n"/>
+      <c r="P6" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="Q6" s="1" t="n"/>
-      <c r="R6" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
         </is>
       </c>
       <c r="S6" s="1" t="n"/>
       <c r="T6" s="1" t="n"/>
       <c r="U6" s="1" t="n"/>
-      <c r="V6" s="1" t="n"/>
+      <c r="V6" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="W6" s="1" t="n"/>
       <c r="X6" s="1" t="n"/>
       <c r="Y6" s="1" t="n"/>
       <c r="Z6" s="1" t="n"/>
       <c r="AA6" s="1" t="n"/>
-      <c r="AB6" s="1" t="n"/>
-      <c r="AC6" s="1" t="n"/>
+      <c r="AB6" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="AC6" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="AD6" s="1" t="n"/>
       <c r="AE6" s="1" t="n"/>
       <c r="AF6" s="1" t="n"/>
-      <c r="AG6" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="AH6" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AG6" s="1" t="n"/>
+      <c r="AH6" s="1" t="n"/>
       <c r="AI6" s="1" t="n"/>
       <c r="AJ6" s="1" t="n"/>
       <c r="AK6" s="1" t="n"/>
@@ -1158,86 +1170,82 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2021-04-16</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+          <t>2021-04-06</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
-      <c r="F7" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
         </is>
       </c>
       <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
-      <c r="I7" s="1" t="n"/>
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="J7" s="1" t="n"/>
-      <c r="K7" s="11" t="inlineStr">
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">ftt </t>
         </is>
       </c>
-      <c r="L7" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="M7" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="P7" s="1" t="n"/>
+      <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="Q7" s="1" t="n"/>
       <c r="R7" s="1" t="n"/>
       <c r="S7" s="1" t="n"/>
       <c r="T7" s="1" t="n"/>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="V7" s="1" t="n"/>
-      <c r="W7" s="1" t="n"/>
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="W7" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="X7" s="1" t="n"/>
       <c r="Y7" s="1" t="n"/>
-      <c r="Z7" s="1" t="n"/>
-      <c r="AA7" s="1" t="n"/>
+      <c r="Z7" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="AA7" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="n"/>
-      <c r="AD7" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="AD7" s="1" t="n"/>
       <c r="AE7" s="1" t="n"/>
-      <c r="AF7" s="6" t="inlineStr">
+      <c r="AF7" s="1" t="n"/>
+      <c r="AG7" s="11" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="AG7" s="1" t="n"/>
-      <c r="AH7" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AH7" s="1" t="n"/>
       <c r="AI7" s="1" t="n"/>
       <c r="AJ7" s="1" t="n"/>
       <c r="AK7" s="1" t="n"/>
@@ -1251,144 +1259,140 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2021-04-22</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+          <t>2021-04-07</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="n"/>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
-      <c r="K8" s="1" t="n"/>
+      <c r="K8" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="L8" s="1" t="n"/>
-      <c r="M8" s="1" t="n"/>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="N8" s="1" t="n"/>
-      <c r="O8" s="1" t="n"/>
+      <c r="O8" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="P8" s="1" t="n"/>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="Q8" s="1" t="n"/>
       <c r="R8" s="1" t="n"/>
-      <c r="S8" s="1" t="n"/>
+      <c r="S8" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="T8" s="1" t="n"/>
       <c r="U8" s="1" t="n"/>
-      <c r="V8" s="9" t="inlineStr">
+      <c r="V8" s="10" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
       </c>
       <c r="W8" s="1" t="n"/>
       <c r="X8" s="1" t="n"/>
-      <c r="Y8" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="Y8" s="1" t="n"/>
       <c r="Z8" s="1" t="n"/>
       <c r="AA8" s="1" t="n"/>
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="n"/>
       <c r="AD8" s="1" t="n"/>
-      <c r="AE8" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="AE8" s="1" t="n"/>
       <c r="AF8" s="1" t="n"/>
       <c r="AG8" s="1" t="n"/>
-      <c r="AH8" s="1" t="n"/>
+      <c r="AH8" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AI8" s="1" t="n"/>
-      <c r="AJ8" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="AK8" s="1" t="n"/>
+      <c r="AJ8" s="1" t="n"/>
+      <c r="AK8" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="AL8" s="1" t="n"/>
       <c r="AM8" s="1" t="n"/>
       <c r="AN8" s="1" t="n"/>
       <c r="AO8" s="1" t="n"/>
       <c r="AP8" s="1" t="n"/>
-      <c r="AQ8" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="AQ8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-04-08</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="E9" s="1" t="n"/>
       <c r="F9" s="13" t="inlineStr">
         <is>
-          <t>marzuk</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
+          <t xml:space="preserve">ftt </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
         </is>
       </c>
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
-      <c r="L9" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="L9" s="1" t="n"/>
       <c r="M9" s="1" t="n"/>
       <c r="N9" s="1" t="n"/>
       <c r="O9" s="1" t="n"/>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="P9" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
       </c>
-      <c r="Q9" s="1" t="n"/>
       <c r="R9" s="1" t="n"/>
       <c r="S9" s="1" t="n"/>
       <c r="T9" s="1" t="n"/>
       <c r="U9" s="1" t="n"/>
       <c r="V9" s="1" t="n"/>
-      <c r="W9" s="3" t="inlineStr">
+      <c r="W9" s="12" t="inlineStr">
         <is>
           <t>equipment day</t>
         </is>
@@ -1396,26 +1400,34 @@
       <c r="X9" s="1" t="n"/>
       <c r="Y9" s="1" t="n"/>
       <c r="Z9" s="1" t="n"/>
-      <c r="AA9" s="1" t="n"/>
-      <c r="AB9" s="1" t="n"/>
+      <c r="AA9" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="AB9" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="AC9" s="1" t="n"/>
       <c r="AD9" s="1" t="n"/>
-      <c r="AE9" s="1" t="n"/>
+      <c r="AE9" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="AF9" s="1" t="n"/>
       <c r="AG9" s="1" t="n"/>
-      <c r="AH9" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AH9" s="1" t="n"/>
       <c r="AI9" s="1" t="n"/>
-      <c r="AJ9" s="1" t="n"/>
+      <c r="AJ9" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="AK9" s="1" t="n"/>
-      <c r="AL9" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="AL9" s="1" t="n"/>
       <c r="AM9" s="1" t="n"/>
       <c r="AN9" s="1" t="n"/>
       <c r="AO9" s="1" t="n"/>
@@ -1425,84 +1437,88 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>equipment night</t>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
         </is>
       </c>
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="G10" s="1" t="n"/>
       <c r="H10" s="1" t="n"/>
-      <c r="I10" s="1" t="n"/>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="J10" s="1" t="n"/>
-      <c r="K10" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="K10" s="1" t="n"/>
       <c r="L10" s="1" t="n"/>
       <c r="M10" s="1" t="n"/>
       <c r="N10" s="1" t="n"/>
-      <c r="O10" s="1" t="n"/>
-      <c r="P10" s="1" t="n"/>
+      <c r="O10" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="P10" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="Q10" s="1" t="n"/>
       <c r="R10" s="1" t="n"/>
       <c r="S10" s="1" t="n"/>
       <c r="T10" s="1" t="n"/>
       <c r="U10" s="1" t="n"/>
-      <c r="V10" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="W10" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="X10" s="1" t="n"/>
-      <c r="Y10" s="1" t="n"/>
+      <c r="V10" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="W10" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="X10" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="Y10" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="Z10" s="1" t="n"/>
       <c r="AA10" s="1" t="n"/>
       <c r="AB10" s="1" t="n"/>
       <c r="AC10" s="1" t="n"/>
       <c r="AD10" s="1" t="n"/>
-      <c r="AE10" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="AE10" s="1" t="n"/>
       <c r="AF10" s="1" t="n"/>
       <c r="AG10" s="1" t="n"/>
-      <c r="AH10" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AH10" s="1" t="n"/>
       <c r="AI10" s="1" t="n"/>
-      <c r="AJ10" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="AJ10" s="1" t="n"/>
       <c r="AK10" s="1" t="n"/>
-      <c r="AL10" s="1" t="n"/>
+      <c r="AL10" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AM10" s="1" t="n"/>
-      <c r="AN10" s="1" t="n"/>
+      <c r="AN10" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="AO10" s="1" t="n"/>
       <c r="AP10" s="1" t="n"/>
       <c r="AQ10" s="1" t="n"/>
@@ -1510,90 +1526,86 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+          <t>2021-04-10</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ftt </t>
-        </is>
-      </c>
-      <c r="H11" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
         </is>
       </c>
       <c r="I11" s="1" t="n"/>
       <c r="J11" s="1" t="n"/>
-      <c r="K11" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
-      <c r="M11" s="1" t="n"/>
-      <c r="N11" s="8" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>bakut night 2</t>
         </is>
       </c>
+      <c r="N11" s="1" t="n"/>
       <c r="O11" s="1" t="n"/>
-      <c r="P11" s="1" t="n"/>
+      <c r="P11" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="Q11" s="1" t="n"/>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="R11" s="1" t="n"/>
       <c r="S11" s="1" t="n"/>
       <c r="T11" s="1" t="n"/>
-      <c r="U11" s="1" t="n"/>
+      <c r="U11" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="V11" s="1" t="n"/>
-      <c r="W11" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="W11" s="1" t="n"/>
       <c r="X11" s="1" t="n"/>
       <c r="Y11" s="1" t="n"/>
-      <c r="Z11" s="1" t="n"/>
+      <c r="Z11" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="AA11" s="1" t="n"/>
       <c r="AB11" s="1" t="n"/>
-      <c r="AC11" s="1" t="n"/>
+      <c r="AC11" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="AD11" s="1" t="n"/>
       <c r="AE11" s="1" t="n"/>
       <c r="AF11" s="1" t="n"/>
-      <c r="AG11" s="1" t="n"/>
-      <c r="AH11" s="9" t="inlineStr">
+      <c r="AG11" s="10" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
       </c>
+      <c r="AH11" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AI11" s="1" t="n"/>
-      <c r="AJ11" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="AJ11" s="1" t="n"/>
       <c r="AK11" s="1" t="n"/>
-      <c r="AL11" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="AL11" s="1" t="n"/>
       <c r="AM11" s="1" t="n"/>
       <c r="AN11" s="1" t="n"/>
       <c r="AO11" s="1" t="n"/>
@@ -1603,180 +1615,168 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2021-04-04</t>
-        </is>
-      </c>
-      <c r="B12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ftt </t>
+          <t>2021-04-11</t>
+        </is>
+      </c>
+      <c r="B12" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
         </is>
       </c>
       <c r="C12" s="1" t="n"/>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D12" s="11" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="E12" s="1" t="n"/>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
       <c r="H12" s="1" t="n"/>
-      <c r="I12" s="1" t="n"/>
-      <c r="J12" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
         </is>
       </c>
       <c r="K12" s="1" t="n"/>
       <c r="L12" s="1" t="n"/>
       <c r="M12" s="1" t="n"/>
-      <c r="N12" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="O12" s="1" t="n"/>
-      <c r="P12" s="4" t="inlineStr">
+      <c r="N12" s="1" t="n"/>
+      <c r="O12" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="P12" s="1" t="n"/>
+      <c r="Q12" s="3" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
       </c>
-      <c r="Q12" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="R12" s="1" t="n"/>
       <c r="S12" s="1" t="n"/>
       <c r="T12" s="1" t="n"/>
       <c r="U12" s="1" t="n"/>
       <c r="V12" s="1" t="n"/>
       <c r="W12" s="1" t="n"/>
-      <c r="X12" s="1" t="n"/>
-      <c r="Y12" s="1" t="n"/>
+      <c r="X12" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="Y12" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="Z12" s="1" t="n"/>
-      <c r="AA12" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="AA12" s="1" t="n"/>
       <c r="AB12" s="1" t="n"/>
-      <c r="AC12" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="AC12" s="1" t="n"/>
       <c r="AD12" s="1" t="n"/>
       <c r="AE12" s="1" t="n"/>
       <c r="AF12" s="1" t="n"/>
       <c r="AG12" s="1" t="n"/>
       <c r="AH12" s="1" t="n"/>
-      <c r="AI12" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AI12" s="1" t="n"/>
       <c r="AJ12" s="1" t="n"/>
       <c r="AK12" s="1" t="n"/>
       <c r="AL12" s="1" t="n"/>
       <c r="AM12" s="1" t="n"/>
       <c r="AN12" s="1" t="n"/>
-      <c r="AO12" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="AO12" s="1" t="n"/>
       <c r="AP12" s="1" t="n"/>
       <c r="AQ12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2021-04-10</t>
-        </is>
-      </c>
-      <c r="B13" s="13" t="inlineStr">
-        <is>
-          <t>marzuk</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
+          <t>2021-04-12</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
       </c>
-      <c r="G13" s="1" t="n"/>
-      <c r="H13" s="1" t="n"/>
+      <c r="H13" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="I13" s="1" t="n"/>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="K13" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="n"/>
-      <c r="M13" s="7" t="inlineStr">
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="8" t="inlineStr">
         <is>
           <t>bakut night 1</t>
         </is>
       </c>
+      <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n"/>
       <c r="P13" s="1" t="n"/>
-      <c r="Q13" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="Q13" s="1" t="n"/>
       <c r="R13" s="1" t="n"/>
       <c r="S13" s="1" t="n"/>
       <c r="T13" s="1" t="n"/>
       <c r="U13" s="1" t="n"/>
-      <c r="V13" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="V13" s="1" t="n"/>
       <c r="W13" s="1" t="n"/>
       <c r="X13" s="1" t="n"/>
       <c r="Y13" s="1" t="n"/>
       <c r="Z13" s="1" t="n"/>
       <c r="AA13" s="1" t="n"/>
       <c r="AB13" s="1" t="n"/>
-      <c r="AC13" s="1" t="n"/>
-      <c r="AD13" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="AC13" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="AD13" s="1" t="n"/>
       <c r="AE13" s="1" t="n"/>
       <c r="AF13" s="1" t="n"/>
-      <c r="AG13" s="1" t="n"/>
+      <c r="AG13" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="AH13" s="1" t="n"/>
       <c r="AI13" s="1" t="n"/>
-      <c r="AJ13" s="1" t="n"/>
+      <c r="AJ13" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="AK13" s="1" t="n"/>
       <c r="AL13" s="1" t="n"/>
       <c r="AM13" s="1" t="n"/>
       <c r="AN13" s="1" t="n"/>
       <c r="AO13" s="1" t="n"/>
       <c r="AP13" s="1" t="n"/>
-      <c r="AQ13" s="2" t="inlineStr">
+      <c r="AQ13" s="9" t="inlineStr">
         <is>
           <t>bakut day 1</t>
         </is>
@@ -1785,75 +1785,75 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2021-04-24</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
+          <t>2021-04-13</t>
+        </is>
+      </c>
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
         </is>
       </c>
       <c r="D14" s="1" t="n"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
-      <c r="H14" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="n"/>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
       <c r="L14" s="1" t="n"/>
-      <c r="M14" s="1" t="n"/>
+      <c r="M14" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="N14" s="1" t="n"/>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="P14" s="4" t="inlineStr">
+      <c r="O14" s="1" t="n"/>
+      <c r="P14" s="1" t="n"/>
+      <c r="Q14" s="3" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
       </c>
-      <c r="Q14" s="1" t="n"/>
-      <c r="R14" s="1" t="n"/>
+      <c r="R14" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="S14" s="1" t="n"/>
       <c r="T14" s="1" t="n"/>
       <c r="U14" s="1" t="n"/>
-      <c r="V14" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="V14" s="1" t="n"/>
       <c r="W14" s="1" t="n"/>
-      <c r="X14" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="X14" s="1" t="n"/>
       <c r="Y14" s="1" t="n"/>
-      <c r="Z14" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="Z14" s="1" t="n"/>
       <c r="AA14" s="1" t="n"/>
       <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="n"/>
       <c r="AD14" s="1" t="n"/>
-      <c r="AE14" s="1" t="n"/>
+      <c r="AE14" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="AF14" s="1" t="n"/>
       <c r="AG14" s="1" t="n"/>
       <c r="AH14" s="1" t="n"/>
-      <c r="AI14" s="9" t="inlineStr">
+      <c r="AI14" s="10" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
@@ -1870,76 +1870,76 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2021-04-28</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="2" t="inlineStr">
+          <t>2021-04-14</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="inlineStr">
         <is>
           <t>bakut day 1</t>
         </is>
       </c>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
       <c r="D15" s="1" t="n"/>
-      <c r="E15" s="10" t="inlineStr">
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="6" t="inlineStr">
         <is>
           <t>eo production</t>
         </is>
       </c>
-      <c r="F15" s="1" t="n"/>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
       <c r="H15" s="1" t="n"/>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="I15" s="1" t="n"/>
       <c r="J15" s="1" t="n"/>
-      <c r="K15" s="1" t="n"/>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n"/>
-      <c r="N15" s="1" t="n"/>
-      <c r="O15" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="N15" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="O15" s="1" t="n"/>
       <c r="P15" s="1" t="n"/>
-      <c r="Q15" s="1" t="n"/>
-      <c r="R15" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="S15" s="1" t="n"/>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="R15" s="1" t="n"/>
+      <c r="S15" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="T15" s="1" t="n"/>
       <c r="U15" s="1" t="n"/>
-      <c r="V15" s="1" t="n"/>
+      <c r="V15" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="W15" s="1" t="n"/>
       <c r="X15" s="1" t="n"/>
-      <c r="Y15" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="Y15" s="1" t="n"/>
       <c r="Z15" s="1" t="n"/>
-      <c r="AA15" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="AB15" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="AA15" s="1" t="n"/>
+      <c r="AB15" s="1" t="n"/>
       <c r="AC15" s="1" t="n"/>
       <c r="AD15" s="1" t="n"/>
       <c r="AE15" s="1" t="n"/>
-      <c r="AF15" s="1" t="n"/>
+      <c r="AF15" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AG15" s="1" t="n"/>
       <c r="AH15" s="1" t="n"/>
       <c r="AI15" s="1" t="n"/>
@@ -1955,58 +1955,66 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2021-04-07</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="B16" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="G16" s="1" t="n"/>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="J16" s="1" t="n"/>
-      <c r="K16" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="M16" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
       <c r="P16" s="1" t="n"/>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="S16" s="5" t="inlineStr">
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="1" t="n"/>
+      <c r="T16" s="7" t="inlineStr">
         <is>
           <t>equipment night</t>
         </is>
       </c>
-      <c r="T16" s="1" t="n"/>
       <c r="U16" s="1" t="n"/>
-      <c r="V16" s="1" t="n"/>
-      <c r="W16" s="1" t="n"/>
-      <c r="X16" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
+      <c r="V16" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="W16" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="X16" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
         </is>
       </c>
       <c r="Y16" s="1" t="n"/>
@@ -2018,20 +2026,16 @@
       <c r="AE16" s="1" t="n"/>
       <c r="AF16" s="1" t="n"/>
       <c r="AG16" s="1" t="n"/>
-      <c r="AH16" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AH16" s="1" t="n"/>
       <c r="AI16" s="1" t="n"/>
       <c r="AJ16" s="1" t="n"/>
-      <c r="AK16" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="AK16" s="1" t="n"/>
       <c r="AL16" s="1" t="n"/>
-      <c r="AM16" s="1" t="n"/>
+      <c r="AM16" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="AN16" s="1" t="n"/>
       <c r="AO16" s="1" t="n"/>
       <c r="AP16" s="1" t="n"/>
@@ -2040,56 +2044,60 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2021-04-11</t>
+          <t>2021-04-16</t>
         </is>
       </c>
       <c r="B17" s="1" t="n"/>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
         <is>
           <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="n"/>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
         </is>
       </c>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
-      <c r="J17" s="1" t="n"/>
-      <c r="K17" s="1" t="n"/>
-      <c r="L17" s="1" t="n"/>
+      <c r="J17" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="K17" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="L17" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
-      <c r="O17" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="O17" s="1" t="n"/>
       <c r="P17" s="1" t="n"/>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="T17" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="S17" s="1" t="n"/>
+      <c r="T17" s="1" t="n"/>
       <c r="U17" s="1" t="n"/>
       <c r="V17" s="1" t="n"/>
       <c r="W17" s="1" t="n"/>
@@ -2102,7 +2110,7 @@
       <c r="AD17" s="1" t="n"/>
       <c r="AE17" s="1" t="n"/>
       <c r="AF17" s="1" t="n"/>
-      <c r="AG17" s="9" t="inlineStr">
+      <c r="AG17" s="10" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
@@ -2114,61 +2122,65 @@
       <c r="AL17" s="1" t="n"/>
       <c r="AM17" s="1" t="n"/>
       <c r="AN17" s="1" t="n"/>
-      <c r="AO17" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="AO17" s="1" t="n"/>
       <c r="AP17" s="1" t="n"/>
       <c r="AQ17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2021-04-05</t>
+          <t>2021-04-17</t>
         </is>
       </c>
       <c r="B18" s="1" t="n"/>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="F18" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ftt </t>
+        </is>
+      </c>
+      <c r="I18" s="7" t="inlineStr">
         <is>
           <t>equipment night</t>
         </is>
       </c>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="F18" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ftt </t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="n"/>
-      <c r="H18" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="n"/>
-      <c r="J18" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="J18" s="1" t="n"/>
       <c r="K18" s="1" t="n"/>
       <c r="L18" s="1" t="n"/>
-      <c r="M18" s="1" t="n"/>
-      <c r="N18" s="1" t="n"/>
-      <c r="O18" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
+      <c r="M18" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="N18" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="O18" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
         </is>
       </c>
       <c r="P18" s="1" t="n"/>
       <c r="Q18" s="1" t="n"/>
-      <c r="R18" s="1" t="n"/>
+      <c r="R18" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="S18" s="1" t="n"/>
       <c r="T18" s="1" t="n"/>
       <c r="U18" s="1" t="n"/>
@@ -2180,118 +2192,118 @@
       <c r="AA18" s="1" t="n"/>
       <c r="AB18" s="1" t="n"/>
       <c r="AC18" s="1" t="n"/>
-      <c r="AD18" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="AD18" s="1" t="n"/>
       <c r="AE18" s="1" t="n"/>
-      <c r="AF18" s="1" t="n"/>
+      <c r="AF18" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AG18" s="1" t="n"/>
-      <c r="AH18" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AH18" s="1" t="n"/>
       <c r="AI18" s="1" t="n"/>
       <c r="AJ18" s="1" t="n"/>
-      <c r="AK18" s="1" t="n"/>
+      <c r="AK18" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="AL18" s="1" t="n"/>
       <c r="AM18" s="1" t="n"/>
-      <c r="AN18" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="AO18" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="AN18" s="1" t="n"/>
+      <c r="AO18" s="1" t="n"/>
       <c r="AP18" s="1" t="n"/>
       <c r="AQ18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="8" t="inlineStr">
+          <t>2021-04-18</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ftt </t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>marzuk</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>bakut night 2</t>
         </is>
       </c>
-      <c r="G19" s="1" t="n"/>
-      <c r="H19" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="I19" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="J19" s="1" t="n"/>
-      <c r="K19" s="1" t="n"/>
       <c r="L19" s="1" t="n"/>
       <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
       <c r="O19" s="1" t="n"/>
-      <c r="P19" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="P19" s="1" t="n"/>
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
       <c r="S19" s="1" t="n"/>
       <c r="T19" s="1" t="n"/>
       <c r="U19" s="1" t="n"/>
-      <c r="V19" s="1" t="n"/>
-      <c r="W19" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="V19" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="W19" s="1" t="n"/>
       <c r="X19" s="1" t="n"/>
-      <c r="Y19" s="1" t="n"/>
-      <c r="Z19" s="1" t="n"/>
+      <c r="Y19" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="Z19" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="AA19" s="1" t="n"/>
       <c r="AB19" s="1" t="n"/>
       <c r="AC19" s="1" t="n"/>
       <c r="AD19" s="1" t="n"/>
       <c r="AE19" s="1" t="n"/>
-      <c r="AF19" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
+      <c r="AF19" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
         </is>
       </c>
       <c r="AG19" s="1" t="n"/>
       <c r="AH19" s="1" t="n"/>
-      <c r="AI19" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
+      <c r="AI19" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
         </is>
       </c>
       <c r="AJ19" s="1" t="n"/>
       <c r="AK19" s="1" t="n"/>
       <c r="AL19" s="1" t="n"/>
       <c r="AM19" s="1" t="n"/>
-      <c r="AN19" s="1" t="n"/>
+      <c r="AN19" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AO19" s="1" t="n"/>
       <c r="AP19" s="1" t="n"/>
       <c r="AQ19" s="1" t="n"/>
@@ -2299,79 +2311,79 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="13" t="inlineStr">
-        <is>
-          <t>marzuk</t>
-        </is>
-      </c>
+          <t>2021-04-19</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n"/>
       <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
-      <c r="G20" s="6" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="11" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="H20" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="n"/>
-      <c r="J20" s="1" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="K20" s="1" t="n"/>
       <c r="L20" s="1" t="n"/>
-      <c r="M20" s="1" t="n"/>
-      <c r="N20" s="1" t="n"/>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="M20" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ftt </t>
+        </is>
+      </c>
+      <c r="N20" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="O20" s="1" t="n"/>
       <c r="P20" s="1" t="n"/>
-      <c r="Q20" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="R20" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="Q20" s="1" t="n"/>
+      <c r="R20" s="1" t="n"/>
       <c r="S20" s="1" t="n"/>
       <c r="T20" s="1" t="n"/>
       <c r="U20" s="1" t="n"/>
-      <c r="V20" s="1" t="n"/>
+      <c r="V20" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="W20" s="1" t="n"/>
-      <c r="X20" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
+      <c r="X20" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
         </is>
       </c>
       <c r="Y20" s="1" t="n"/>
-      <c r="Z20" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="Z20" s="1" t="n"/>
       <c r="AA20" s="1" t="n"/>
       <c r="AB20" s="1" t="n"/>
       <c r="AC20" s="1" t="n"/>
       <c r="AD20" s="1" t="n"/>
       <c r="AE20" s="1" t="n"/>
-      <c r="AF20" s="3" t="inlineStr">
+      <c r="AF20" s="12" t="inlineStr">
         <is>
           <t>equipment day</t>
         </is>
       </c>
       <c r="AG20" s="1" t="n"/>
       <c r="AH20" s="1" t="n"/>
-      <c r="AI20" s="9" t="inlineStr">
+      <c r="AI20" s="10" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
@@ -2382,65 +2394,61 @@
       <c r="AM20" s="1" t="n"/>
       <c r="AN20" s="1" t="n"/>
       <c r="AO20" s="1" t="n"/>
-      <c r="AP20" s="1" t="n"/>
+      <c r="AP20" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="AQ20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-04-20</t>
         </is>
       </c>
       <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="n"/>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>bakut night 2</t>
+          <t>bakut night 1</t>
         </is>
       </c>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="J21" s="1" t="n"/>
       <c r="K21" s="1" t="n"/>
-      <c r="L21" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="M21" s="1" t="n"/>
+      <c r="L21" s="1" t="n"/>
+      <c r="M21" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="N21" s="1" t="n"/>
       <c r="O21" s="1" t="n"/>
       <c r="P21" s="1" t="n"/>
-      <c r="Q21" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
+      <c r="Q21" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
         </is>
       </c>
       <c r="R21" s="1" t="n"/>
       <c r="S21" s="1" t="n"/>
       <c r="T21" s="1" t="n"/>
       <c r="U21" s="1" t="n"/>
-      <c r="V21" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
-      <c r="W21" s="4" t="inlineStr">
+      <c r="V21" s="1" t="n"/>
+      <c r="W21" s="3" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
@@ -2448,15 +2456,19 @@
       <c r="X21" s="1" t="n"/>
       <c r="Y21" s="1" t="n"/>
       <c r="Z21" s="1" t="n"/>
-      <c r="AA21" s="1" t="n"/>
+      <c r="AA21" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
       <c r="AB21" s="1" t="n"/>
       <c r="AC21" s="1" t="n"/>
       <c r="AD21" s="1" t="n"/>
       <c r="AE21" s="1" t="n"/>
       <c r="AF21" s="1" t="n"/>
-      <c r="AG21" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
+      <c r="AG21" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
         </is>
       </c>
       <c r="AH21" s="1" t="n"/>
@@ -2466,94 +2478,98 @@
       <c r="AL21" s="1" t="n"/>
       <c r="AM21" s="1" t="n"/>
       <c r="AN21" s="1" t="n"/>
-      <c r="AO21" s="1" t="n"/>
+      <c r="AO21" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AP21" s="1" t="n"/>
       <c r="AQ21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2021-04-17</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n"/>
+          <t>2021-04-21</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
       <c r="C22" s="1" t="n"/>
-      <c r="D22" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="F22" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="G22" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="n"/>
-      <c r="I22" s="5" t="inlineStr">
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="7" t="inlineStr">
         <is>
           <t>equipment night</t>
         </is>
       </c>
-      <c r="J22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="K22" s="1" t="n"/>
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
-      <c r="O22" s="1" t="n"/>
-      <c r="P22" s="4" t="inlineStr">
+      <c r="O22" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="P22" s="3" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
       </c>
-      <c r="Q22" s="1" t="n"/>
+      <c r="Q22" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
       <c r="R22" s="1" t="n"/>
       <c r="S22" s="1" t="n"/>
       <c r="T22" s="1" t="n"/>
       <c r="U22" s="1" t="n"/>
-      <c r="V22" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="V22" s="1" t="n"/>
       <c r="W22" s="1" t="n"/>
-      <c r="X22" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="X22" s="1" t="n"/>
       <c r="Y22" s="1" t="n"/>
       <c r="Z22" s="1" t="n"/>
-      <c r="AA22" s="1" t="n"/>
+      <c r="AA22" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="AB22" s="1" t="n"/>
       <c r="AC22" s="1" t="n"/>
       <c r="AD22" s="1" t="n"/>
-      <c r="AE22" s="1" t="n"/>
+      <c r="AE22" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="AF22" s="1" t="n"/>
-      <c r="AG22" s="9" t="inlineStr">
+      <c r="AG22" s="10" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
       </c>
       <c r="AH22" s="1" t="n"/>
       <c r="AI22" s="1" t="n"/>
-      <c r="AJ22" s="1" t="n"/>
+      <c r="AJ22" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="AK22" s="1" t="n"/>
       <c r="AL22" s="1" t="n"/>
-      <c r="AM22" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="AM22" s="1" t="n"/>
       <c r="AN22" s="1" t="n"/>
       <c r="AO22" s="1" t="n"/>
       <c r="AP22" s="1" t="n"/>
@@ -2562,234 +2578,226 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n"/>
+          <t>2021-04-22</t>
+        </is>
+      </c>
+      <c r="B23" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="C23" s="1" t="n"/>
-      <c r="D23" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
+      <c r="D23" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
         </is>
       </c>
       <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="G23" s="1" t="n"/>
       <c r="H23" s="1" t="n"/>
       <c r="I23" s="1" t="n"/>
-      <c r="J23" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
         </is>
       </c>
       <c r="K23" s="1" t="n"/>
-      <c r="L23" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n"/>
-      <c r="N23" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="N23" s="1" t="n"/>
       <c r="O23" s="1" t="n"/>
       <c r="P23" s="1" t="n"/>
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
-      <c r="S23" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="S23" s="1" t="n"/>
       <c r="T23" s="1" t="n"/>
       <c r="U23" s="1" t="n"/>
-      <c r="V23" s="1" t="n"/>
-      <c r="W23" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
+      <c r="V23" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="W23" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
         </is>
       </c>
       <c r="X23" s="1" t="n"/>
       <c r="Y23" s="1" t="n"/>
-      <c r="Z23" s="1" t="n"/>
+      <c r="Z23" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="AA23" s="1" t="n"/>
-      <c r="AB23" s="1" t="n"/>
+      <c r="AB23" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="AC23" s="1" t="n"/>
       <c r="AD23" s="1" t="n"/>
       <c r="AE23" s="1" t="n"/>
       <c r="AF23" s="1" t="n"/>
       <c r="AG23" s="1" t="n"/>
       <c r="AH23" s="1" t="n"/>
-      <c r="AI23" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AI23" s="1" t="n"/>
       <c r="AJ23" s="1" t="n"/>
-      <c r="AK23" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="AK23" s="1" t="n"/>
       <c r="AL23" s="1" t="n"/>
       <c r="AM23" s="1" t="n"/>
       <c r="AN23" s="1" t="n"/>
       <c r="AO23" s="1" t="n"/>
-      <c r="AP23" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="AQ23" s="1" t="n"/>
+      <c r="AP23" s="1" t="n"/>
+      <c r="AQ23" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-23</t>
         </is>
       </c>
       <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
       </c>
-      <c r="G24" s="7" t="inlineStr">
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="H24" s="8" t="inlineStr">
         <is>
           <t>bakut night 1</t>
         </is>
       </c>
-      <c r="H24" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ftt </t>
-        </is>
-      </c>
       <c r="I24" s="1" t="n"/>
-      <c r="J24" s="6" t="inlineStr">
+      <c r="J24" s="1" t="n"/>
+      <c r="K24" s="11" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="K24" s="1" t="n"/>
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n"/>
-      <c r="N24" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="O24" s="1" t="n"/>
+      <c r="N24" s="1" t="n"/>
+      <c r="O24" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="P24" s="1" t="n"/>
       <c r="Q24" s="1" t="n"/>
-      <c r="R24" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="R24" s="1" t="n"/>
       <c r="S24" s="1" t="n"/>
       <c r="T24" s="1" t="n"/>
       <c r="U24" s="1" t="n"/>
       <c r="V24" s="1" t="n"/>
       <c r="W24" s="1" t="n"/>
       <c r="X24" s="1" t="n"/>
-      <c r="Y24" s="1" t="n"/>
+      <c r="Y24" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="Z24" s="1" t="n"/>
       <c r="AA24" s="1" t="n"/>
       <c r="AB24" s="1" t="n"/>
       <c r="AC24" s="1" t="n"/>
       <c r="AD24" s="1" t="n"/>
       <c r="AE24" s="1" t="n"/>
-      <c r="AF24" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="AF24" s="1" t="n"/>
       <c r="AG24" s="1" t="n"/>
       <c r="AH24" s="1" t="n"/>
-      <c r="AI24" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AI24" s="1" t="n"/>
       <c r="AJ24" s="1" t="n"/>
       <c r="AK24" s="1" t="n"/>
       <c r="AL24" s="1" t="n"/>
-      <c r="AM24" s="1" t="n"/>
+      <c r="AM24" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AN24" s="1" t="n"/>
       <c r="AO24" s="1" t="n"/>
-      <c r="AP24" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="AP24" s="1" t="n"/>
       <c r="AQ24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2021-04-09</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n"/>
+          <t>2021-04-24</t>
+        </is>
+      </c>
+      <c r="B25" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="n"/>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="F25" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
       <c r="G25" s="8" t="inlineStr">
         <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="I25" s="7" t="inlineStr">
-        <is>
           <t>bakut night 1</t>
         </is>
       </c>
-      <c r="J25" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
       <c r="K25" s="1" t="n"/>
       <c r="L25" s="1" t="n"/>
-      <c r="M25" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="N25" s="1" t="n"/>
-      <c r="O25" s="3" t="inlineStr">
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="O25" s="1" t="n"/>
+      <c r="P25" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="Q25" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="R25" s="12" t="inlineStr">
         <is>
           <t>equipment day</t>
         </is>
       </c>
-      <c r="P25" s="1" t="n"/>
-      <c r="Q25" s="1" t="n"/>
-      <c r="R25" s="1" t="n"/>
       <c r="S25" s="1" t="n"/>
-      <c r="T25" s="1" t="n"/>
+      <c r="T25" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="U25" s="1" t="n"/>
       <c r="V25" s="1" t="n"/>
       <c r="W25" s="1" t="n"/>
@@ -2797,106 +2805,106 @@
       <c r="Y25" s="1" t="n"/>
       <c r="Z25" s="1" t="n"/>
       <c r="AA25" s="1" t="n"/>
-      <c r="AB25" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="AB25" s="1" t="n"/>
       <c r="AC25" s="1" t="n"/>
       <c r="AD25" s="1" t="n"/>
       <c r="AE25" s="1" t="n"/>
       <c r="AF25" s="1" t="n"/>
-      <c r="AG25" s="1" t="n"/>
+      <c r="AG25" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="AH25" s="1" t="n"/>
-      <c r="AI25" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AI25" s="1" t="n"/>
       <c r="AJ25" s="1" t="n"/>
       <c r="AK25" s="1" t="n"/>
       <c r="AL25" s="1" t="n"/>
       <c r="AM25" s="1" t="n"/>
       <c r="AN25" s="1" t="n"/>
       <c r="AO25" s="1" t="n"/>
-      <c r="AP25" s="1" t="n"/>
+      <c r="AP25" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="AQ25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2021-04-15</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="n"/>
-      <c r="D26" s="1" t="n"/>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="D26" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="n"/>
       <c r="F26" s="1" t="n"/>
       <c r="G26" s="1" t="n"/>
-      <c r="H26" s="7" t="inlineStr">
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="J26" s="1" t="n"/>
+      <c r="K26" s="1" t="n"/>
+      <c r="L26" s="8" t="inlineStr">
         <is>
           <t>bakut night 1</t>
         </is>
       </c>
-      <c r="I26" s="1" t="n"/>
-      <c r="J26" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="K26" s="1" t="n"/>
-      <c r="L26" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="M26" s="10" t="inlineStr">
+      <c r="M26" s="1" t="n"/>
+      <c r="N26" s="1" t="n"/>
+      <c r="O26" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="P26" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="Q26" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="R26" s="6" t="inlineStr">
         <is>
           <t>eo production</t>
         </is>
       </c>
-      <c r="N26" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="O26" s="1" t="n"/>
-      <c r="P26" s="1" t="n"/>
-      <c r="Q26" s="1" t="n"/>
-      <c r="R26" s="1" t="n"/>
       <c r="S26" s="1" t="n"/>
       <c r="T26" s="1" t="n"/>
       <c r="U26" s="1" t="n"/>
-      <c r="V26" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
-      <c r="W26" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="V26" s="1" t="n"/>
+      <c r="W26" s="1" t="n"/>
       <c r="X26" s="1" t="n"/>
       <c r="Y26" s="1" t="n"/>
-      <c r="Z26" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="AA26" s="1" t="n"/>
+      <c r="Z26" s="1" t="n"/>
+      <c r="AA26" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="AB26" s="1" t="n"/>
       <c r="AC26" s="1" t="n"/>
       <c r="AD26" s="1" t="n"/>
       <c r="AE26" s="1" t="n"/>
       <c r="AF26" s="1" t="n"/>
       <c r="AG26" s="1" t="n"/>
-      <c r="AH26" s="1" t="n"/>
+      <c r="AH26" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="AI26" s="1" t="n"/>
       <c r="AJ26" s="1" t="n"/>
       <c r="AK26" s="1" t="n"/>
@@ -2910,87 +2918,87 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n"/>
+          <t>2021-04-26</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="n"/>
-      <c r="E27" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
-      <c r="F27" s="1" t="n"/>
-      <c r="G27" s="1" t="n"/>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="G27" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ftt </t>
+        </is>
+      </c>
       <c r="H27" s="1" t="n"/>
       <c r="I27" s="1" t="n"/>
-      <c r="J27" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="J27" s="1" t="n"/>
       <c r="K27" s="1" t="n"/>
       <c r="L27" s="1" t="n"/>
-      <c r="M27" s="1" t="n"/>
-      <c r="N27" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="O27" s="1" t="n"/>
-      <c r="P27" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="M27" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="N27" s="1" t="n"/>
+      <c r="O27" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="P27" s="1" t="n"/>
       <c r="Q27" s="1" t="n"/>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="R27" s="1" t="n"/>
       <c r="S27" s="1" t="n"/>
       <c r="T27" s="1" t="n"/>
       <c r="U27" s="1" t="n"/>
-      <c r="V27" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="W27" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
+      <c r="V27" s="1" t="n"/>
+      <c r="W27" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
         </is>
       </c>
       <c r="X27" s="1" t="n"/>
-      <c r="Y27" s="1" t="n"/>
+      <c r="Y27" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="Z27" s="1" t="n"/>
       <c r="AA27" s="1" t="n"/>
       <c r="AB27" s="1" t="n"/>
       <c r="AC27" s="1" t="n"/>
-      <c r="AD27" s="1" t="n"/>
-      <c r="AE27" s="8" t="inlineStr">
+      <c r="AD27" s="4" t="inlineStr">
         <is>
           <t>bakut night 2</t>
         </is>
       </c>
+      <c r="AE27" s="1" t="n"/>
       <c r="AF27" s="1" t="n"/>
-      <c r="AG27" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AG27" s="1" t="n"/>
       <c r="AH27" s="1" t="n"/>
       <c r="AI27" s="1" t="n"/>
       <c r="AJ27" s="1" t="n"/>
       <c r="AK27" s="1" t="n"/>
-      <c r="AL27" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="AM27" s="1" t="n"/>
+      <c r="AL27" s="1" t="n"/>
+      <c r="AM27" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AN27" s="1" t="n"/>
       <c r="AO27" s="1" t="n"/>
       <c r="AP27" s="1" t="n"/>
@@ -2999,65 +3007,65 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2021-04-06</t>
+          <t>2021-04-27</t>
         </is>
       </c>
       <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
+      <c r="C28" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="n"/>
-      <c r="F28" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="G28" s="10" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>eo production</t>
         </is>
       </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="n"/>
       <c r="I28" s="1" t="n"/>
       <c r="J28" s="1" t="n"/>
       <c r="K28" s="1" t="n"/>
-      <c r="L28" s="1" t="n"/>
-      <c r="M28" s="8" t="inlineStr">
+      <c r="L28" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="M28" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="N28" s="4" t="inlineStr">
         <is>
           <t>bakut night 2</t>
         </is>
       </c>
-      <c r="N28" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="O28" s="1" t="n"/>
-      <c r="P28" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
+      <c r="O28" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="P28" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
         </is>
       </c>
       <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n"/>
       <c r="S28" s="1" t="n"/>
       <c r="T28" s="1" t="n"/>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="U28" s="1" t="n"/>
       <c r="V28" s="1" t="n"/>
       <c r="W28" s="1" t="n"/>
       <c r="X28" s="1" t="n"/>
-      <c r="Y28" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="Y28" s="1" t="n"/>
       <c r="Z28" s="1" t="n"/>
       <c r="AA28" s="1" t="n"/>
       <c r="AB28" s="1" t="n"/>
@@ -3065,13 +3073,13 @@
       <c r="AD28" s="1" t="n"/>
       <c r="AE28" s="1" t="n"/>
       <c r="AF28" s="1" t="n"/>
-      <c r="AG28" s="9" t="inlineStr">
+      <c r="AG28" s="1" t="n"/>
+      <c r="AH28" s="1" t="n"/>
+      <c r="AI28" s="10" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
       </c>
-      <c r="AH28" s="1" t="n"/>
-      <c r="AI28" s="1" t="n"/>
       <c r="AJ28" s="1" t="n"/>
       <c r="AK28" s="1" t="n"/>
       <c r="AL28" s="1" t="n"/>
@@ -3084,84 +3092,88 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2021-04-23</t>
+          <t>2021-04-28</t>
         </is>
       </c>
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="n"/>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="n"/>
       <c r="G29" s="1" t="n"/>
       <c r="H29" s="1" t="n"/>
       <c r="I29" s="1" t="n"/>
-      <c r="J29" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="n"/>
+      <c r="J29" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="L29" s="1" t="n"/>
-      <c r="M29" s="1" t="n"/>
+      <c r="M29" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ftt </t>
+        </is>
+      </c>
       <c r="N29" s="1" t="n"/>
       <c r="O29" s="1" t="n"/>
-      <c r="P29" s="1" t="n"/>
-      <c r="Q29" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="R29" s="1" t="n"/>
-      <c r="S29" s="1" t="n"/>
-      <c r="T29" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="P29" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="Q29" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="R29" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="S29" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="T29" s="1" t="n"/>
       <c r="U29" s="1" t="n"/>
-      <c r="V29" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="V29" s="1" t="n"/>
       <c r="W29" s="1" t="n"/>
-      <c r="X29" s="1" t="n"/>
+      <c r="X29" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="Y29" s="1" t="n"/>
       <c r="Z29" s="1" t="n"/>
       <c r="AA29" s="1" t="n"/>
-      <c r="AB29" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="AC29" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="AB29" s="1" t="n"/>
+      <c r="AC29" s="1" t="n"/>
       <c r="AD29" s="1" t="n"/>
       <c r="AE29" s="1" t="n"/>
-      <c r="AF29" s="1" t="n"/>
+      <c r="AF29" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AG29" s="1" t="n"/>
-      <c r="AH29" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AH29" s="1" t="n"/>
       <c r="AI29" s="1" t="n"/>
       <c r="AJ29" s="1" t="n"/>
       <c r="AK29" s="1" t="n"/>
       <c r="AL29" s="1" t="n"/>
       <c r="AM29" s="1" t="n"/>
-      <c r="AN29" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="AN29" s="1" t="n"/>
       <c r="AO29" s="1" t="n"/>
       <c r="AP29" s="1" t="n"/>
       <c r="AQ29" s="1" t="n"/>
@@ -3169,15 +3181,31 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2021-04-21</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
-      <c r="D30" s="1" t="n"/>
-      <c r="E30" s="1" t="n"/>
+          <t>2021-04-29</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="F30" s="1" t="n"/>
-      <c r="G30" s="7" t="inlineStr">
+      <c r="G30" s="8" t="inlineStr">
         <is>
           <t>bakut night 1</t>
         </is>
@@ -3185,67 +3213,59 @@
       <c r="H30" s="1" t="n"/>
       <c r="I30" s="1" t="n"/>
       <c r="J30" s="1" t="n"/>
-      <c r="K30" s="6" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="L30" s="1" t="n"/>
-      <c r="M30" s="1" t="n"/>
-      <c r="N30" s="1" t="n"/>
-      <c r="O30" s="1" t="n"/>
-      <c r="P30" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="Q30" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ftt </t>
+        </is>
+      </c>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="N30" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="O30" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="P30" s="1" t="n"/>
+      <c r="Q30" s="1" t="n"/>
       <c r="R30" s="1" t="n"/>
-      <c r="S30" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="S30" s="1" t="n"/>
       <c r="T30" s="1" t="n"/>
       <c r="U30" s="1" t="n"/>
-      <c r="V30" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
-      <c r="W30" s="1" t="n"/>
+      <c r="V30" s="1" t="n"/>
+      <c r="W30" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="X30" s="1" t="n"/>
       <c r="Y30" s="1" t="n"/>
       <c r="Z30" s="1" t="n"/>
       <c r="AA30" s="1" t="n"/>
-      <c r="AB30" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="AB30" s="1" t="n"/>
       <c r="AC30" s="1" t="n"/>
       <c r="AD30" s="1" t="n"/>
       <c r="AE30" s="1" t="n"/>
-      <c r="AF30" s="2" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="AF30" s="1" t="n"/>
       <c r="AG30" s="1" t="n"/>
       <c r="AH30" s="1" t="n"/>
-      <c r="AI30" s="1" t="n"/>
+      <c r="AI30" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="AJ30" s="1" t="n"/>
       <c r="AK30" s="1" t="n"/>
       <c r="AL30" s="1" t="n"/>
-      <c r="AM30" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="AM30" s="1" t="n"/>
       <c r="AN30" s="1" t="n"/>
       <c r="AO30" s="1" t="n"/>
       <c r="AP30" s="1" t="n"/>
@@ -3254,66 +3274,66 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2021-04-20</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="n"/>
-      <c r="F31" s="1" t="n"/>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="F31" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ftt </t>
+        </is>
+      </c>
       <c r="G31" s="1" t="n"/>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H31" s="7" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="n"/>
+      <c r="K31" s="1" t="n"/>
+      <c r="L31" s="1" t="n"/>
+      <c r="M31" s="9" t="inlineStr">
         <is>
           <t>bakut day 1</t>
         </is>
       </c>
-      <c r="I31" s="1" t="n"/>
-      <c r="J31" s="7" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="K31" s="6" t="inlineStr">
+      <c r="N31" s="1" t="n"/>
+      <c r="O31" s="1" t="n"/>
+      <c r="P31" s="6" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="Q31" s="1" t="n"/>
+      <c r="R31" s="11" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="L31" s="1" t="n"/>
-      <c r="M31" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="N31" s="1" t="n"/>
-      <c r="O31" s="3" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="P31" s="4" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="Q31" s="1" t="n"/>
-      <c r="R31" s="1" t="n"/>
       <c r="S31" s="1" t="n"/>
       <c r="T31" s="1" t="n"/>
       <c r="U31" s="1" t="n"/>
-      <c r="V31" s="1" t="n"/>
+      <c r="V31" s="10" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="W31" s="1" t="n"/>
       <c r="X31" s="1" t="n"/>
-      <c r="Y31" s="8" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="Z31" s="5" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="Y31" s="1" t="n"/>
+      <c r="Z31" s="1" t="n"/>
       <c r="AA31" s="1" t="n"/>
       <c r="AB31" s="1" t="n"/>
       <c r="AC31" s="1" t="n"/>
@@ -3322,16 +3342,20 @@
       <c r="AF31" s="1" t="n"/>
       <c r="AG31" s="1" t="n"/>
       <c r="AH31" s="1" t="n"/>
-      <c r="AI31" s="9" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AI31" s="1" t="n"/>
       <c r="AJ31" s="1" t="n"/>
       <c r="AK31" s="1" t="n"/>
-      <c r="AL31" s="1" t="n"/>
+      <c r="AL31" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AM31" s="1" t="n"/>
-      <c r="AN31" s="1" t="n"/>
+      <c r="AN31" s="3" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="AO31" s="1" t="n"/>
       <c r="AP31" s="1" t="n"/>
       <c r="AQ31" s="1" t="n"/>

--- a/output/Butzi.xlsx
+++ b/output/Butzi.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
@@ -38,8 +38,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9B29C"/>
-        <bgColor rgb="00D9B29C"/>
+        <fgColor rgb="00F28D9F"/>
+        <bgColor rgb="00F28D9F"/>
       </patternFill>
     </fill>
     <fill>
@@ -50,8 +50,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F28D9F"/>
-        <bgColor rgb="00F28D9F"/>
+        <fgColor rgb="00762CBF"/>
+        <bgColor rgb="00762CBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0017BF60"/>
+        <bgColor rgb="0017BF60"/>
       </patternFill>
     </fill>
     <fill>
@@ -62,8 +68,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0017BF60"/>
-        <bgColor rgb="0017BF60"/>
+        <fgColor rgb="00D9B29C"/>
+        <bgColor rgb="00D9B29C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2EEAC"/>
+        <bgColor rgb="00F2EEAC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F24171"/>
+        <bgColor rgb="00F24171"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000BD9D9"/>
+        <bgColor rgb="000BD9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,26 +98,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00762CBF"/>
-        <bgColor rgb="00762CBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F2E205"/>
         <bgColor rgb="00F2E205"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000BD9D9"/>
-        <bgColor rgb="000BD9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F24171"/>
-        <bgColor rgb="00F24171"/>
+        <fgColor rgb="00e5e5e5"/>
+        <bgColor rgb="00f5f5f5"/>
       </patternFill>
     </fill>
     <fill>
@@ -104,20 +116,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004cd615"/>
-        <bgColor rgb="004cd615"/>
+        <fgColor rgb="00ff6236"/>
+        <bgColor rgb="00ff6236"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffb536"/>
-        <bgColor rgb="00ffb536"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ff6236"/>
-        <bgColor rgb="00ff6236"/>
+        <fgColor rgb="004cd615"/>
+        <bgColor rgb="004cd615"/>
       </patternFill>
     </fill>
     <fill>
@@ -134,20 +140,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00808080"/>
+        <bgColor rgb="00808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ffed4d"/>
         <bgColor rgb="00ffed4d"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="00ffb536"/>
+        <bgColor rgb="00ffb536"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2EEAC"/>
-        <bgColor rgb="00F2EEAC"/>
+        <fgColor rgb="007216F2"/>
+        <bgColor rgb="007216F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -163,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -176,15 +188,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -550,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ32"/>
+  <dimension ref="A1:AQ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +793,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
+          <t>bakut day 1</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -788,33 +802,37 @@
         </is>
       </c>
       <c r="D2" s="1" t="n"/>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="n"/>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="K2" s="6" t="inlineStr">
         <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="n"/>
-      <c r="M2" s="1" t="n"/>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="L2" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>marzuk</t>
+        </is>
+      </c>
       <c r="N2" s="1" t="n"/>
-      <c r="O2" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="O2" s="1" t="n"/>
       <c r="P2" s="1" t="n"/>
       <c r="Q2" s="1" t="n"/>
       <c r="R2" s="1" t="n"/>
@@ -822,41 +840,41 @@
       <c r="T2" s="1" t="n"/>
       <c r="U2" s="1" t="n"/>
       <c r="V2" s="1" t="n"/>
-      <c r="W2" s="1" t="n"/>
+      <c r="W2" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="X2" s="1" t="n"/>
       <c r="Y2" s="1" t="n"/>
       <c r="Z2" s="1" t="n"/>
-      <c r="AA2" s="1" t="n"/>
+      <c r="AA2" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="AB2" s="1" t="n"/>
       <c r="AC2" s="1" t="n"/>
-      <c r="AD2" s="1" t="n"/>
-      <c r="AE2" s="1" t="n"/>
+      <c r="AD2" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="AE2" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AF2" s="1" t="n"/>
       <c r="AG2" s="1" t="n"/>
       <c r="AH2" s="1" t="n"/>
       <c r="AI2" s="1" t="n"/>
-      <c r="AJ2" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="AJ2" s="1" t="n"/>
       <c r="AK2" s="1" t="n"/>
       <c r="AL2" s="1" t="n"/>
-      <c r="AM2" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="AN2" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="AO2" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="AM2" s="1" t="n"/>
+      <c r="AN2" s="1" t="n"/>
+      <c r="AO2" s="1" t="n"/>
       <c r="AP2" s="1" t="n"/>
       <c r="AQ2" s="1" t="n"/>
     </row>
@@ -866,9 +884,9 @@
           <t>2021-03-02</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
         </is>
       </c>
       <c r="C3" s="1" t="n"/>
@@ -877,25 +895,41 @@
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="E3" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="n"/>
       <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
-      <c r="I3" s="1" t="n"/>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
         <is>
           <t>bakut night 1</t>
         </is>
       </c>
-      <c r="K3" s="1" t="n"/>
-      <c r="L3" s="1" t="n"/>
+      <c r="J3" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="K3" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="L3" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
       <c r="M3" s="1" t="n"/>
       <c r="N3" s="1" t="n"/>
-      <c r="O3" s="7" t="inlineStr">
+      <c r="O3" s="11" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
@@ -907,42 +941,42 @@
       <c r="T3" s="1" t="n"/>
       <c r="U3" s="1" t="n"/>
       <c r="V3" s="1" t="n"/>
-      <c r="W3" s="1" t="n"/>
+      <c r="W3" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="X3" s="1" t="n"/>
       <c r="Y3" s="1" t="n"/>
-      <c r="Z3" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="AA3" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="AB3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="AB3" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AC3" s="1" t="n"/>
       <c r="AD3" s="1" t="n"/>
       <c r="AE3" s="1" t="n"/>
       <c r="AF3" s="1" t="n"/>
-      <c r="AG3" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="AG3" s="1" t="n"/>
       <c r="AH3" s="1" t="n"/>
       <c r="AI3" s="1" t="n"/>
-      <c r="AJ3" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="AJ3" s="1" t="n"/>
       <c r="AK3" s="1" t="n"/>
       <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n"/>
       <c r="AN3" s="1" t="n"/>
       <c r="AO3" s="1" t="n"/>
-      <c r="AP3" s="1" t="n"/>
+      <c r="AP3" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="AQ3" s="1" t="n"/>
     </row>
     <row r="4">
@@ -951,80 +985,88 @@
           <t>2021-03-03</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>bakut day 1</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="n"/>
-      <c r="H4" s="1" t="n"/>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>bakut night 2</t>
         </is>
       </c>
-      <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="n"/>
       <c r="L4" s="1" t="n"/>
-      <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="M4" s="1" t="n"/>
       <c r="N4" s="1" t="n"/>
-      <c r="O4" s="1" t="n"/>
+      <c r="O4" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="P4" s="1" t="n"/>
-      <c r="Q4" s="1" t="n"/>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="R4" s="1" t="n"/>
-      <c r="S4" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="T4" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="n"/>
       <c r="U4" s="1" t="n"/>
       <c r="V4" s="1" t="n"/>
-      <c r="W4" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="W4" s="1" t="n"/>
       <c r="X4" s="1" t="n"/>
       <c r="Y4" s="1" t="n"/>
       <c r="Z4" s="1" t="n"/>
-      <c r="AA4" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
+      <c r="AA4" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="n"/>
       <c r="AD4" s="1" t="n"/>
-      <c r="AE4" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AE4" s="1" t="n"/>
       <c r="AF4" s="1" t="n"/>
-      <c r="AG4" s="1" t="n"/>
+      <c r="AG4" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AH4" s="1" t="n"/>
-      <c r="AI4" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="AI4" s="1" t="n"/>
       <c r="AJ4" s="1" t="n"/>
       <c r="AK4" s="1" t="n"/>
       <c r="AL4" s="1" t="n"/>
@@ -1040,40 +1082,52 @@
           <t>2021-03-04</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="n"/>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="J5" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>bakut night 2</t>
         </is>
       </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="n"/>
-      <c r="I5" s="1" t="n"/>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="n"/>
-      <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
-      <c r="O5" s="9" t="inlineStr">
+      <c r="O5" s="12" t="inlineStr">
         <is>
           <t>equipment day</t>
         </is>
@@ -1086,29 +1140,29 @@
       <c r="U5" s="1" t="n"/>
       <c r="V5" s="1" t="n"/>
       <c r="W5" s="1" t="n"/>
-      <c r="X5" s="1" t="n"/>
-      <c r="Y5" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="X5" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="Y5" s="1" t="n"/>
       <c r="Z5" s="1" t="n"/>
       <c r="AA5" s="1" t="n"/>
       <c r="AB5" s="1" t="n"/>
       <c r="AC5" s="1" t="n"/>
       <c r="AD5" s="1" t="n"/>
       <c r="AE5" s="1" t="n"/>
-      <c r="AF5" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="AG5" s="7" t="inlineStr">
+      <c r="AF5" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="AG5" s="1" t="n"/>
+      <c r="AH5" s="11" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
       </c>
-      <c r="AH5" s="1" t="n"/>
       <c r="AI5" s="1" t="n"/>
       <c r="AJ5" s="1" t="n"/>
       <c r="AK5" s="1" t="n"/>
@@ -1120,158 +1174,158 @@
       <c r="AQ5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="B6" s="12" t="n"/>
-      <c r="C6" s="12" t="n"/>
-      <c r="D6" s="12" t="n"/>
-      <c r="E6" s="12" t="n"/>
-      <c r="F6" s="12" t="n"/>
-      <c r="G6" s="12" t="n"/>
-      <c r="H6" s="12" t="n"/>
-      <c r="I6" s="12" t="n"/>
-      <c r="J6" s="12" t="n"/>
-      <c r="K6" s="12" t="n"/>
-      <c r="L6" s="12" t="n"/>
-      <c r="M6" s="12" t="n"/>
-      <c r="N6" s="13" t="inlineStr">
+      <c r="B6" s="14" t="n"/>
+      <c r="C6" s="14" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="14" t="n"/>
+      <c r="G6" s="14" t="n"/>
+      <c r="H6" s="14" t="n"/>
+      <c r="I6" s="14" t="n"/>
+      <c r="J6" s="14" t="n"/>
+      <c r="K6" s="14" t="n"/>
+      <c r="L6" s="14" t="n"/>
+      <c r="M6" s="14" t="n"/>
+      <c r="N6" s="14" t="n"/>
+      <c r="O6" s="14" t="n"/>
+      <c r="P6" s="14" t="n"/>
+      <c r="Q6" s="15" t="inlineStr">
+        <is>
+          <t>Sofash production</t>
+        </is>
+      </c>
+      <c r="R6" s="14" t="n"/>
+      <c r="S6" s="14" t="n"/>
+      <c r="T6" s="16" t="inlineStr">
         <is>
           <t>Sofash bakut night 2</t>
         </is>
       </c>
-      <c r="O6" s="12" t="n"/>
-      <c r="P6" s="14" t="inlineStr">
+      <c r="U6" s="14" t="n"/>
+      <c r="V6" s="17" t="inlineStr">
+        <is>
+          <t>Sofash bakut night 1</t>
+        </is>
+      </c>
+      <c r="W6" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sofash Equip day </t>
+        </is>
+      </c>
+      <c r="X6" s="19" t="inlineStr">
+        <is>
+          <t>Sofash bakut day 1</t>
+        </is>
+      </c>
+      <c r="Y6" s="20" t="inlineStr">
+        <is>
+          <t>Sofash bakut day 2</t>
+        </is>
+      </c>
+      <c r="Z6" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">Sofash Equip night </t>
         </is>
       </c>
-      <c r="Q6" s="12" t="n"/>
-      <c r="R6" s="15" t="inlineStr">
-        <is>
-          <t>Sofash production</t>
-        </is>
-      </c>
-      <c r="S6" s="12" t="n"/>
-      <c r="T6" s="12" t="n"/>
-      <c r="U6" s="12" t="n"/>
-      <c r="V6" s="12" t="n"/>
-      <c r="W6" s="12" t="n"/>
-      <c r="X6" s="12" t="n"/>
-      <c r="Y6" s="12" t="n"/>
-      <c r="Z6" s="12" t="n"/>
-      <c r="AA6" s="16" t="inlineStr">
-        <is>
-          <t>Sofash bakut night 1</t>
-        </is>
-      </c>
-      <c r="AB6" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sofash Equip day </t>
-        </is>
-      </c>
-      <c r="AC6" s="12" t="n"/>
-      <c r="AD6" s="12" t="n"/>
-      <c r="AE6" s="18" t="inlineStr">
-        <is>
-          <t>Sofash bakut day 2</t>
-        </is>
-      </c>
-      <c r="AF6" s="12" t="n"/>
-      <c r="AG6" s="12" t="n"/>
-      <c r="AH6" s="12" t="n"/>
-      <c r="AI6" s="12" t="n"/>
-      <c r="AJ6" s="12" t="n"/>
-      <c r="AK6" s="12" t="n"/>
-      <c r="AL6" s="19" t="inlineStr">
-        <is>
-          <t>Sofash bakut day 1</t>
-        </is>
-      </c>
-      <c r="AM6" s="12" t="n"/>
-      <c r="AN6" s="12" t="n"/>
-      <c r="AO6" s="12" t="n"/>
-      <c r="AP6" s="12" t="n"/>
-      <c r="AQ6" s="12" t="n"/>
+      <c r="AA6" s="14" t="n"/>
+      <c r="AB6" s="14" t="n"/>
+      <c r="AC6" s="14" t="n"/>
+      <c r="AD6" s="14" t="n"/>
+      <c r="AE6" s="14" t="n"/>
+      <c r="AF6" s="14" t="n"/>
+      <c r="AG6" s="14" t="n"/>
+      <c r="AH6" s="14" t="n"/>
+      <c r="AI6" s="14" t="n"/>
+      <c r="AJ6" s="14" t="n"/>
+      <c r="AK6" s="14" t="n"/>
+      <c r="AL6" s="14" t="n"/>
+      <c r="AM6" s="14" t="n"/>
+      <c r="AN6" s="14" t="n"/>
+      <c r="AO6" s="14" t="n"/>
+      <c r="AP6" s="14" t="n"/>
+      <c r="AQ6" s="14" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="inlineStr">
+      <c r="A7" s="14" t="inlineStr">
         <is>
           <t>2021-03-06</t>
         </is>
       </c>
-      <c r="B7" s="12" t="n"/>
-      <c r="C7" s="12" t="n"/>
-      <c r="D7" s="12" t="n"/>
-      <c r="E7" s="12" t="n"/>
-      <c r="F7" s="12" t="n"/>
-      <c r="G7" s="12" t="n"/>
-      <c r="H7" s="12" t="n"/>
-      <c r="I7" s="12" t="n"/>
-      <c r="J7" s="12" t="n"/>
-      <c r="K7" s="12" t="n"/>
-      <c r="L7" s="12" t="n"/>
-      <c r="M7" s="12" t="n"/>
-      <c r="N7" s="13" t="inlineStr">
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="14" t="n"/>
+      <c r="D7" s="14" t="n"/>
+      <c r="E7" s="14" t="n"/>
+      <c r="F7" s="14" t="n"/>
+      <c r="G7" s="14" t="n"/>
+      <c r="H7" s="14" t="n"/>
+      <c r="I7" s="14" t="n"/>
+      <c r="J7" s="14" t="n"/>
+      <c r="K7" s="14" t="n"/>
+      <c r="L7" s="14" t="n"/>
+      <c r="M7" s="14" t="n"/>
+      <c r="N7" s="14" t="n"/>
+      <c r="O7" s="14" t="n"/>
+      <c r="P7" s="14" t="n"/>
+      <c r="Q7" s="15" t="inlineStr">
+        <is>
+          <t>Sofash production</t>
+        </is>
+      </c>
+      <c r="R7" s="14" t="n"/>
+      <c r="S7" s="14" t="n"/>
+      <c r="T7" s="16" t="inlineStr">
         <is>
           <t>Sofash bakut night 2</t>
         </is>
       </c>
-      <c r="O7" s="12" t="n"/>
-      <c r="P7" s="14" t="inlineStr">
+      <c r="U7" s="14" t="n"/>
+      <c r="V7" s="17" t="inlineStr">
+        <is>
+          <t>Sofash bakut night 1</t>
+        </is>
+      </c>
+      <c r="W7" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sofash Equip day </t>
+        </is>
+      </c>
+      <c r="X7" s="19" t="inlineStr">
+        <is>
+          <t>Sofash bakut day 1</t>
+        </is>
+      </c>
+      <c r="Y7" s="20" t="inlineStr">
+        <is>
+          <t>Sofash bakut day 2</t>
+        </is>
+      </c>
+      <c r="Z7" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">Sofash Equip night </t>
         </is>
       </c>
-      <c r="Q7" s="12" t="n"/>
-      <c r="R7" s="15" t="inlineStr">
-        <is>
-          <t>Sofash production</t>
-        </is>
-      </c>
-      <c r="S7" s="12" t="n"/>
-      <c r="T7" s="12" t="n"/>
-      <c r="U7" s="12" t="n"/>
-      <c r="V7" s="12" t="n"/>
-      <c r="W7" s="12" t="n"/>
-      <c r="X7" s="12" t="n"/>
-      <c r="Y7" s="12" t="n"/>
-      <c r="Z7" s="12" t="n"/>
-      <c r="AA7" s="16" t="inlineStr">
-        <is>
-          <t>Sofash bakut night 1</t>
-        </is>
-      </c>
-      <c r="AB7" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sofash Equip day </t>
-        </is>
-      </c>
-      <c r="AC7" s="12" t="n"/>
-      <c r="AD7" s="12" t="n"/>
-      <c r="AE7" s="18" t="inlineStr">
-        <is>
-          <t>Sofash bakut day 2</t>
-        </is>
-      </c>
-      <c r="AF7" s="12" t="n"/>
-      <c r="AG7" s="12" t="n"/>
-      <c r="AH7" s="12" t="n"/>
-      <c r="AI7" s="12" t="n"/>
-      <c r="AJ7" s="12" t="n"/>
-      <c r="AK7" s="12" t="n"/>
-      <c r="AL7" s="19" t="inlineStr">
-        <is>
-          <t>Sofash bakut day 1</t>
-        </is>
-      </c>
-      <c r="AM7" s="12" t="n"/>
-      <c r="AN7" s="12" t="n"/>
-      <c r="AO7" s="12" t="n"/>
-      <c r="AP7" s="12" t="n"/>
-      <c r="AQ7" s="12" t="n"/>
+      <c r="AA7" s="14" t="n"/>
+      <c r="AB7" s="14" t="n"/>
+      <c r="AC7" s="14" t="n"/>
+      <c r="AD7" s="14" t="n"/>
+      <c r="AE7" s="14" t="n"/>
+      <c r="AF7" s="14" t="n"/>
+      <c r="AG7" s="14" t="n"/>
+      <c r="AH7" s="14" t="n"/>
+      <c r="AI7" s="14" t="n"/>
+      <c r="AJ7" s="14" t="n"/>
+      <c r="AK7" s="14" t="n"/>
+      <c r="AL7" s="14" t="n"/>
+      <c r="AM7" s="14" t="n"/>
+      <c r="AN7" s="14" t="n"/>
+      <c r="AO7" s="14" t="n"/>
+      <c r="AP7" s="14" t="n"/>
+      <c r="AQ7" s="14" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1279,11 +1333,7 @@
           <t>2021-03-07</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
+      <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="n"/>
@@ -1292,75 +1342,107 @@
           <t>eo production</t>
         </is>
       </c>
-      <c r="G8" s="1" t="n"/>
-      <c r="H8" s="1" t="n"/>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="3" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
+      <c r="L8" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
         </is>
       </c>
       <c r="M8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
-      <c r="O8" s="7" t="inlineStr">
+      <c r="O8" s="11" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
       </c>
       <c r="P8" s="1" t="n"/>
-      <c r="Q8" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
+      <c r="Q8" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
       <c r="R8" s="1" t="n"/>
       <c r="S8" s="1" t="n"/>
-      <c r="T8" s="1" t="n"/>
+      <c r="T8" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="U8" s="1" t="n"/>
-      <c r="V8" s="1" t="n"/>
-      <c r="W8" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="X8" s="1" t="n"/>
-      <c r="Y8" s="1" t="n"/>
-      <c r="Z8" s="1" t="n"/>
+      <c r="V8" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="W8" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="X8" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="Y8" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="Z8" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="AA8" s="1" t="n"/>
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="n"/>
-      <c r="AD8" s="1" t="n"/>
+      <c r="AD8" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="AE8" s="1" t="n"/>
       <c r="AF8" s="1" t="n"/>
-      <c r="AG8" s="9" t="inlineStr">
+      <c r="AG8" s="1" t="n"/>
+      <c r="AH8" s="12" t="inlineStr">
         <is>
           <t>equipment day</t>
         </is>
       </c>
-      <c r="AH8" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
       <c r="AI8" s="1" t="n"/>
-      <c r="AJ8" s="1" t="n"/>
+      <c r="AJ8" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="AK8" s="1" t="n"/>
       <c r="AL8" s="1" t="n"/>
       <c r="AM8" s="1" t="n"/>
       <c r="AN8" s="1" t="n"/>
       <c r="AO8" s="1" t="n"/>
       <c r="AP8" s="1" t="n"/>
-      <c r="AQ8" s="1" t="n"/>
+      <c r="AQ8" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1368,50 +1450,62 @@
           <t>2021-03-08</t>
         </is>
       </c>
-      <c r="B9" s="20" t="inlineStr">
-        <is>
-          <t>marzuk</t>
+      <c r="B9" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
         </is>
       </c>
       <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>bakut day 1</t>
         </is>
       </c>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
-      <c r="L9" s="1" t="n"/>
-      <c r="M9" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="L9" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="n"/>
       <c r="N9" s="1" t="n"/>
-      <c r="O9" s="7" t="inlineStr">
+      <c r="O9" s="11" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
       </c>
-      <c r="P9" s="1" t="n"/>
-      <c r="Q9" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="P9" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="n"/>
       <c r="R9" s="1" t="n"/>
       <c r="S9" s="1" t="n"/>
       <c r="T9" s="1" t="n"/>
@@ -1420,12 +1514,12 @@
       <c r="W9" s="1" t="n"/>
       <c r="X9" s="1" t="n"/>
       <c r="Y9" s="1" t="n"/>
-      <c r="Z9" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="AA9" s="1" t="n"/>
+      <c r="Z9" s="1" t="n"/>
+      <c r="AA9" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="n"/>
       <c r="AD9" s="1" t="n"/>
@@ -1436,18 +1530,14 @@
       <c r="AI9" s="1" t="n"/>
       <c r="AJ9" s="1" t="n"/>
       <c r="AK9" s="1" t="n"/>
-      <c r="AL9" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="AL9" s="1" t="n"/>
       <c r="AM9" s="1" t="n"/>
       <c r="AN9" s="1" t="n"/>
       <c r="AO9" s="1" t="n"/>
       <c r="AP9" s="1" t="n"/>
-      <c r="AQ9" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
+      <c r="AQ9" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
     </row>
@@ -1457,60 +1547,64 @@
           <t>2021-03-09</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="D10" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>bakut day 1</t>
         </is>
       </c>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="K10" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="10" t="inlineStr">
         <is>
           <t>eo production</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="n"/>
-      <c r="H10" s="1" t="n"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="n"/>
-      <c r="M10" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
         </is>
       </c>
       <c r="N10" s="1" t="n"/>
       <c r="O10" s="1" t="n"/>
       <c r="P10" s="1" t="n"/>
       <c r="Q10" s="1" t="n"/>
-      <c r="R10" s="1" t="n"/>
+      <c r="R10" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="S10" s="1" t="n"/>
       <c r="T10" s="1" t="n"/>
       <c r="U10" s="1" t="n"/>
-      <c r="V10" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
-      <c r="W10" s="11" t="inlineStr">
+      <c r="V10" s="1" t="n"/>
+      <c r="W10" s="9" t="inlineStr">
         <is>
           <t>equipment night</t>
         </is>
@@ -1518,9 +1612,9 @@
       <c r="X10" s="1" t="n"/>
       <c r="Y10" s="1" t="n"/>
       <c r="Z10" s="1" t="n"/>
-      <c r="AA10" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
+      <c r="AA10" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
       <c r="AB10" s="1" t="n"/>
@@ -1528,7 +1622,11 @@
       <c r="AD10" s="1" t="n"/>
       <c r="AE10" s="1" t="n"/>
       <c r="AF10" s="1" t="n"/>
-      <c r="AG10" s="1" t="n"/>
+      <c r="AG10" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="AH10" s="1" t="n"/>
       <c r="AI10" s="1" t="n"/>
       <c r="AJ10" s="1" t="n"/>
@@ -1546,74 +1644,90 @@
           <t>2021-03-10</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
         </is>
       </c>
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
-      <c r="F11" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="n"/>
-      <c r="H11" s="1" t="n"/>
-      <c r="I11" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="J11" s="1" t="n"/>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
-      <c r="M11" s="1" t="n"/>
-      <c r="N11" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="M11" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="N11" s="1" t="n"/>
       <c r="O11" s="1" t="n"/>
-      <c r="P11" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="P11" s="1" t="n"/>
       <c r="Q11" s="5" t="inlineStr">
         <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="R11" s="1" t="n"/>
-      <c r="S11" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="R11" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="S11" s="1" t="n"/>
       <c r="T11" s="1" t="n"/>
-      <c r="U11" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="U11" s="1" t="n"/>
       <c r="V11" s="1" t="n"/>
-      <c r="W11" s="1" t="n"/>
+      <c r="W11" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="X11" s="1" t="n"/>
       <c r="Y11" s="1" t="n"/>
-      <c r="Z11" s="1" t="n"/>
+      <c r="Z11" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="AA11" s="1" t="n"/>
-      <c r="AB11" s="1" t="n"/>
+      <c r="AB11" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="AC11" s="1" t="n"/>
       <c r="AD11" s="1" t="n"/>
       <c r="AE11" s="1" t="n"/>
       <c r="AF11" s="1" t="n"/>
       <c r="AG11" s="1" t="n"/>
       <c r="AH11" s="1" t="n"/>
-      <c r="AI11" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
+      <c r="AI11" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
         </is>
       </c>
       <c r="AJ11" s="1" t="n"/>
@@ -1632,62 +1746,74 @@
         </is>
       </c>
       <c r="B12" s="1" t="n"/>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="n"/>
+      <c r="L12" s="6" t="inlineStr">
         <is>
           <t>bakut night 1</t>
         </is>
       </c>
-      <c r="D12" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="n"/>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="n"/>
-      <c r="I12" s="1" t="n"/>
-      <c r="J12" s="1" t="n"/>
-      <c r="K12" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="L12" s="1" t="n"/>
-      <c r="M12" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
         </is>
       </c>
       <c r="N12" s="1" t="n"/>
-      <c r="O12" s="1" t="n"/>
-      <c r="P12" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="Q12" s="1" t="n"/>
+      <c r="O12" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="P12" s="1" t="n"/>
+      <c r="Q12" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="R12" s="1" t="n"/>
       <c r="S12" s="1" t="n"/>
       <c r="T12" s="1" t="n"/>
-      <c r="U12" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="V12" s="1" t="n"/>
+      <c r="U12" s="1" t="n"/>
+      <c r="V12" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="W12" s="1" t="n"/>
       <c r="X12" s="1" t="n"/>
       <c r="Y12" s="1" t="n"/>
-      <c r="Z12" s="1" t="n"/>
+      <c r="Z12" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="AA12" s="1" t="n"/>
       <c r="AB12" s="1" t="n"/>
       <c r="AC12" s="1" t="n"/>
@@ -1696,11 +1822,7 @@
       <c r="AF12" s="1" t="n"/>
       <c r="AG12" s="1" t="n"/>
       <c r="AH12" s="1" t="n"/>
-      <c r="AI12" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AI12" s="1" t="n"/>
       <c r="AJ12" s="1" t="n"/>
       <c r="AK12" s="10" t="inlineStr">
         <is>
@@ -1715,158 +1837,158 @@
       <c r="AQ12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="inlineStr">
+      <c r="A13" s="14" t="inlineStr">
         <is>
           <t>2021-03-12</t>
         </is>
       </c>
-      <c r="B13" s="12" t="n"/>
-      <c r="C13" s="12" t="n"/>
-      <c r="D13" s="12" t="n"/>
-      <c r="E13" s="12" t="n"/>
-      <c r="F13" s="12" t="n"/>
-      <c r="G13" s="12" t="n"/>
-      <c r="H13" s="12" t="n"/>
-      <c r="I13" s="12" t="n"/>
-      <c r="J13" s="12" t="n"/>
-      <c r="K13" s="12" t="n"/>
-      <c r="L13" s="12" t="n"/>
-      <c r="M13" s="12" t="n"/>
-      <c r="N13" s="12" t="n"/>
-      <c r="O13" s="12" t="n"/>
-      <c r="P13" s="12" t="n"/>
-      <c r="Q13" s="12" t="n"/>
-      <c r="R13" s="12" t="n"/>
-      <c r="S13" s="17" t="inlineStr">
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="14" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="14" t="n"/>
+      <c r="G13" s="14" t="n"/>
+      <c r="H13" s="14" t="n"/>
+      <c r="I13" s="14" t="n"/>
+      <c r="J13" s="14" t="n"/>
+      <c r="K13" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sofash Equip night </t>
+        </is>
+      </c>
+      <c r="L13" s="14" t="n"/>
+      <c r="M13" s="14" t="n"/>
+      <c r="N13" s="14" t="n"/>
+      <c r="O13" s="14" t="n"/>
+      <c r="P13" s="17" t="inlineStr">
+        <is>
+          <t>Sofash bakut night 1</t>
+        </is>
+      </c>
+      <c r="Q13" s="14" t="n"/>
+      <c r="R13" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Sofash Equip day </t>
         </is>
       </c>
-      <c r="T13" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sofash Equip night </t>
-        </is>
-      </c>
-      <c r="U13" s="12" t="n"/>
-      <c r="V13" s="13" t="inlineStr">
+      <c r="S13" s="14" t="n"/>
+      <c r="T13" s="14" t="n"/>
+      <c r="U13" s="14" t="n"/>
+      <c r="V13" s="16" t="inlineStr">
         <is>
           <t>Sofash bakut night 2</t>
         </is>
       </c>
-      <c r="W13" s="12" t="n"/>
+      <c r="W13" s="14" t="n"/>
       <c r="X13" s="15" t="inlineStr">
         <is>
           <t>Sofash production</t>
         </is>
       </c>
-      <c r="Y13" s="12" t="n"/>
-      <c r="Z13" s="12" t="n"/>
-      <c r="AA13" s="12" t="n"/>
-      <c r="AB13" s="19" t="inlineStr">
+      <c r="Y13" s="14" t="n"/>
+      <c r="Z13" s="14" t="n"/>
+      <c r="AA13" s="19" t="inlineStr">
         <is>
           <t>Sofash bakut day 1</t>
         </is>
       </c>
-      <c r="AC13" s="12" t="n"/>
-      <c r="AD13" s="16" t="inlineStr">
-        <is>
-          <t>Sofash bakut night 1</t>
-        </is>
-      </c>
-      <c r="AE13" s="12" t="n"/>
-      <c r="AF13" s="12" t="n"/>
-      <c r="AG13" s="12" t="n"/>
-      <c r="AH13" s="12" t="n"/>
-      <c r="AI13" s="12" t="n"/>
-      <c r="AJ13" s="18" t="inlineStr">
+      <c r="AB13" s="14" t="n"/>
+      <c r="AC13" s="14" t="n"/>
+      <c r="AD13" s="14" t="n"/>
+      <c r="AE13" s="14" t="n"/>
+      <c r="AF13" s="14" t="n"/>
+      <c r="AG13" s="14" t="n"/>
+      <c r="AH13" s="14" t="n"/>
+      <c r="AI13" s="14" t="n"/>
+      <c r="AJ13" s="20" t="inlineStr">
         <is>
           <t>Sofash bakut day 2</t>
         </is>
       </c>
-      <c r="AK13" s="12" t="n"/>
-      <c r="AL13" s="12" t="n"/>
-      <c r="AM13" s="12" t="n"/>
-      <c r="AN13" s="12" t="n"/>
-      <c r="AO13" s="12" t="n"/>
-      <c r="AP13" s="12" t="n"/>
-      <c r="AQ13" s="12" t="n"/>
+      <c r="AK13" s="14" t="n"/>
+      <c r="AL13" s="14" t="n"/>
+      <c r="AM13" s="14" t="n"/>
+      <c r="AN13" s="14" t="n"/>
+      <c r="AO13" s="14" t="n"/>
+      <c r="AP13" s="14" t="n"/>
+      <c r="AQ13" s="14" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="inlineStr">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>2021-03-13</t>
         </is>
       </c>
-      <c r="B14" s="12" t="n"/>
-      <c r="C14" s="12" t="n"/>
-      <c r="D14" s="12" t="n"/>
-      <c r="E14" s="12" t="n"/>
-      <c r="F14" s="12" t="n"/>
-      <c r="G14" s="12" t="n"/>
-      <c r="H14" s="12" t="n"/>
-      <c r="I14" s="12" t="n"/>
-      <c r="J14" s="12" t="n"/>
-      <c r="K14" s="12" t="n"/>
-      <c r="L14" s="12" t="n"/>
-      <c r="M14" s="12" t="n"/>
-      <c r="N14" s="12" t="n"/>
-      <c r="O14" s="12" t="n"/>
-      <c r="P14" s="12" t="n"/>
-      <c r="Q14" s="12" t="n"/>
-      <c r="R14" s="12" t="n"/>
-      <c r="S14" s="17" t="inlineStr">
+      <c r="B14" s="14" t="n"/>
+      <c r="C14" s="14" t="n"/>
+      <c r="D14" s="14" t="n"/>
+      <c r="E14" s="14" t="n"/>
+      <c r="F14" s="14" t="n"/>
+      <c r="G14" s="14" t="n"/>
+      <c r="H14" s="14" t="n"/>
+      <c r="I14" s="14" t="n"/>
+      <c r="J14" s="14" t="n"/>
+      <c r="K14" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sofash Equip night </t>
+        </is>
+      </c>
+      <c r="L14" s="14" t="n"/>
+      <c r="M14" s="14" t="n"/>
+      <c r="N14" s="14" t="n"/>
+      <c r="O14" s="14" t="n"/>
+      <c r="P14" s="17" t="inlineStr">
+        <is>
+          <t>Sofash bakut night 1</t>
+        </is>
+      </c>
+      <c r="Q14" s="14" t="n"/>
+      <c r="R14" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Sofash Equip day </t>
         </is>
       </c>
-      <c r="T14" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sofash Equip night </t>
-        </is>
-      </c>
-      <c r="U14" s="12" t="n"/>
-      <c r="V14" s="13" t="inlineStr">
+      <c r="S14" s="14" t="n"/>
+      <c r="T14" s="14" t="n"/>
+      <c r="U14" s="14" t="n"/>
+      <c r="V14" s="16" t="inlineStr">
         <is>
           <t>Sofash bakut night 2</t>
         </is>
       </c>
-      <c r="W14" s="12" t="n"/>
+      <c r="W14" s="14" t="n"/>
       <c r="X14" s="15" t="inlineStr">
         <is>
           <t>Sofash production</t>
         </is>
       </c>
-      <c r="Y14" s="12" t="n"/>
-      <c r="Z14" s="12" t="n"/>
-      <c r="AA14" s="12" t="n"/>
-      <c r="AB14" s="19" t="inlineStr">
+      <c r="Y14" s="14" t="n"/>
+      <c r="Z14" s="14" t="n"/>
+      <c r="AA14" s="19" t="inlineStr">
         <is>
           <t>Sofash bakut day 1</t>
         </is>
       </c>
-      <c r="AC14" s="12" t="n"/>
-      <c r="AD14" s="16" t="inlineStr">
-        <is>
-          <t>Sofash bakut night 1</t>
-        </is>
-      </c>
-      <c r="AE14" s="12" t="n"/>
-      <c r="AF14" s="12" t="n"/>
-      <c r="AG14" s="12" t="n"/>
-      <c r="AH14" s="12" t="n"/>
-      <c r="AI14" s="12" t="n"/>
-      <c r="AJ14" s="18" t="inlineStr">
+      <c r="AB14" s="14" t="n"/>
+      <c r="AC14" s="14" t="n"/>
+      <c r="AD14" s="14" t="n"/>
+      <c r="AE14" s="14" t="n"/>
+      <c r="AF14" s="14" t="n"/>
+      <c r="AG14" s="14" t="n"/>
+      <c r="AH14" s="14" t="n"/>
+      <c r="AI14" s="14" t="n"/>
+      <c r="AJ14" s="20" t="inlineStr">
         <is>
           <t>Sofash bakut day 2</t>
         </is>
       </c>
-      <c r="AK14" s="12" t="n"/>
-      <c r="AL14" s="12" t="n"/>
-      <c r="AM14" s="12" t="n"/>
-      <c r="AN14" s="12" t="n"/>
-      <c r="AO14" s="12" t="n"/>
-      <c r="AP14" s="12" t="n"/>
-      <c r="AQ14" s="12" t="n"/>
+      <c r="AK14" s="14" t="n"/>
+      <c r="AL14" s="14" t="n"/>
+      <c r="AM14" s="14" t="n"/>
+      <c r="AN14" s="14" t="n"/>
+      <c r="AO14" s="14" t="n"/>
+      <c r="AP14" s="14" t="n"/>
+      <c r="AQ14" s="14" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1874,80 +1996,108 @@
           <t>2021-03-14</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
+      <c r="B15" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
         </is>
       </c>
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n"/>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="F15" s="1" t="n"/>
-      <c r="G15" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="n"/>
-      <c r="I15" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="J15" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="n"/>
-      <c r="L15" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
-      <c r="O15" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
-      <c r="P15" s="1" t="n"/>
-      <c r="Q15" s="1" t="n"/>
-      <c r="R15" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
+      <c r="O15" s="1" t="n"/>
+      <c r="P15" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="R15" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
       <c r="S15" s="1" t="n"/>
       <c r="T15" s="1" t="n"/>
-      <c r="U15" s="1" t="n"/>
-      <c r="V15" s="1" t="n"/>
+      <c r="U15" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="V15" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="W15" s="1" t="n"/>
-      <c r="X15" s="1" t="n"/>
+      <c r="X15" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="Y15" s="1" t="n"/>
       <c r="Z15" s="1" t="n"/>
-      <c r="AA15" s="1" t="n"/>
+      <c r="AA15" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="AB15" s="1" t="n"/>
       <c r="AC15" s="1" t="n"/>
       <c r="AD15" s="1" t="n"/>
-      <c r="AE15" s="1" t="n"/>
+      <c r="AE15" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="AF15" s="1" t="n"/>
       <c r="AG15" s="1" t="n"/>
       <c r="AH15" s="1" t="n"/>
       <c r="AI15" s="1" t="n"/>
-      <c r="AJ15" s="1" t="n"/>
-      <c r="AK15" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="AJ15" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="AK15" s="1" t="n"/>
       <c r="AL15" s="1" t="n"/>
-      <c r="AM15" s="1" t="n"/>
+      <c r="AM15" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="AN15" s="1" t="n"/>
       <c r="AO15" s="1" t="n"/>
       <c r="AP15" s="1" t="n"/>
@@ -1959,76 +2109,76 @@
           <t>2021-03-15</t>
         </is>
       </c>
-      <c r="B16" s="9" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
         <is>
           <t>equipment day</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
       <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
-      <c r="H16" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="J16" s="1" t="n"/>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
+      <c r="K16" s="1" t="n"/>
       <c r="L16" s="1" t="n"/>
-      <c r="M16" s="6" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>bakut night 2</t>
         </is>
       </c>
       <c r="N16" s="1" t="n"/>
-      <c r="O16" s="7" t="inlineStr">
+      <c r="O16" s="1" t="n"/>
+      <c r="P16" s="1" t="n"/>
+      <c r="Q16" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="T16" s="11" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
       </c>
-      <c r="P16" s="1" t="n"/>
-      <c r="Q16" s="1" t="n"/>
-      <c r="R16" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="S16" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="T16" s="1" t="n"/>
       <c r="U16" s="1" t="n"/>
       <c r="V16" s="1" t="n"/>
       <c r="W16" s="1" t="n"/>
       <c r="X16" s="1" t="n"/>
       <c r="Y16" s="1" t="n"/>
       <c r="Z16" s="1" t="n"/>
-      <c r="AA16" s="1" t="n"/>
+      <c r="AA16" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="AB16" s="1" t="n"/>
       <c r="AC16" s="1" t="n"/>
       <c r="AD16" s="1" t="n"/>
-      <c r="AE16" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="AE16" s="1" t="n"/>
       <c r="AF16" s="1" t="n"/>
       <c r="AG16" s="1" t="n"/>
       <c r="AH16" s="1" t="n"/>
@@ -2036,8 +2186,16 @@
       <c r="AJ16" s="1" t="n"/>
       <c r="AK16" s="1" t="n"/>
       <c r="AL16" s="1" t="n"/>
-      <c r="AM16" s="1" t="n"/>
-      <c r="AN16" s="1" t="n"/>
+      <c r="AM16" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="AN16" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="AO16" s="1" t="n"/>
       <c r="AP16" s="1" t="n"/>
       <c r="AQ16" s="1" t="n"/>
@@ -2048,65 +2206,85 @@
           <t>2021-03-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n"/>
+      <c r="B17" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="C17" s="1" t="n"/>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>bakut day 1</t>
         </is>
       </c>
-      <c r="E17" s="1" t="n"/>
-      <c r="F17" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="n"/>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>bakut night 2</t>
         </is>
       </c>
-      <c r="J17" s="1" t="n"/>
-      <c r="K17" s="1" t="n"/>
-      <c r="L17" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="M17" s="1" t="n"/>
-      <c r="N17" s="1" t="n"/>
-      <c r="O17" s="1" t="n"/>
+      <c r="L17" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="M17" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="N17" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="O17" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="P17" s="1" t="n"/>
-      <c r="Q17" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="R17" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="S17" s="1" t="n"/>
+      <c r="Q17" s="1" t="n"/>
+      <c r="R17" s="1" t="n"/>
+      <c r="S17" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="T17" s="1" t="n"/>
       <c r="U17" s="1" t="n"/>
       <c r="V17" s="1" t="n"/>
-      <c r="W17" s="1" t="n"/>
+      <c r="W17" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="X17" s="1" t="n"/>
-      <c r="Y17" s="1" t="n"/>
+      <c r="Y17" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="Z17" s="1" t="n"/>
       <c r="AA17" s="1" t="n"/>
-      <c r="AB17" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AB17" s="1" t="n"/>
       <c r="AC17" s="1" t="n"/>
       <c r="AD17" s="1" t="n"/>
       <c r="AE17" s="1" t="n"/>
@@ -2118,11 +2296,7 @@
       <c r="AK17" s="1" t="n"/>
       <c r="AL17" s="1" t="n"/>
       <c r="AM17" s="1" t="n"/>
-      <c r="AN17" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="AN17" s="1" t="n"/>
       <c r="AO17" s="1" t="n"/>
       <c r="AP17" s="1" t="n"/>
       <c r="AQ17" s="1" t="n"/>
@@ -2133,61 +2307,69 @@
           <t>2021-03-17</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>bakut day 1</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="H18" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="L18" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="M18" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="N18" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="O18" s="1" t="n"/>
+      <c r="P18" s="12" t="inlineStr">
         <is>
           <t>equipment day</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n"/>
-      <c r="G18" s="1" t="n"/>
-      <c r="H18" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="n"/>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="K18" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
-      <c r="M18" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="N18" s="1" t="n"/>
-      <c r="O18" s="1" t="n"/>
-      <c r="P18" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
         </is>
       </c>
       <c r="Q18" s="1" t="n"/>
       <c r="R18" s="1" t="n"/>
-      <c r="S18" s="1" t="n"/>
-      <c r="T18" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="S18" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="T18" s="1" t="n"/>
       <c r="U18" s="1" t="n"/>
       <c r="V18" s="1" t="n"/>
       <c r="W18" s="1" t="n"/>
@@ -2196,18 +2378,22 @@
       <c r="Z18" s="1" t="n"/>
       <c r="AA18" s="1" t="n"/>
       <c r="AB18" s="1" t="n"/>
-      <c r="AC18" s="1" t="n"/>
-      <c r="AD18" s="1" t="n"/>
+      <c r="AC18" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="AD18" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="AE18" s="1" t="n"/>
       <c r="AF18" s="1" t="n"/>
       <c r="AG18" s="1" t="n"/>
       <c r="AH18" s="1" t="n"/>
       <c r="AI18" s="1" t="n"/>
-      <c r="AJ18" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="AJ18" s="1" t="n"/>
       <c r="AK18" s="1" t="n"/>
       <c r="AL18" s="1" t="n"/>
       <c r="AM18" s="1" t="n"/>
@@ -2222,238 +2408,254 @@
           <t>2021-03-18</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
         </is>
       </c>
       <c r="C19" s="1" t="n"/>
-      <c r="D19" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="E19" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="F19" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
         <is>
           <t>bakut night 1</t>
         </is>
       </c>
-      <c r="H19" s="1" t="n"/>
-      <c r="I19" s="1" t="n"/>
-      <c r="J19" s="1" t="n"/>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
       <c r="K19" s="1" t="n"/>
       <c r="L19" s="3" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="M19" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
       <c r="O19" s="1" t="n"/>
-      <c r="P19" s="1" t="n"/>
+      <c r="P19" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
-      <c r="S19" s="1" t="n"/>
+      <c r="S19" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="T19" s="1" t="n"/>
       <c r="U19" s="1" t="n"/>
       <c r="V19" s="1" t="n"/>
-      <c r="W19" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="W19" s="1" t="n"/>
       <c r="X19" s="1" t="n"/>
       <c r="Y19" s="1" t="n"/>
-      <c r="Z19" s="1" t="n"/>
+      <c r="Z19" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="AA19" s="1" t="n"/>
-      <c r="AB19" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
-      <c r="AC19" s="1" t="n"/>
+      <c r="AB19" s="1" t="n"/>
+      <c r="AC19" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="AD19" s="1" t="n"/>
-      <c r="AE19" s="1" t="n"/>
+      <c r="AE19" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="AF19" s="1" t="n"/>
-      <c r="AG19" s="1" t="n"/>
+      <c r="AG19" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="AH19" s="1" t="n"/>
       <c r="AI19" s="1" t="n"/>
       <c r="AJ19" s="1" t="n"/>
       <c r="AK19" s="1" t="n"/>
       <c r="AL19" s="1" t="n"/>
       <c r="AM19" s="1" t="n"/>
-      <c r="AN19" s="1" t="n"/>
+      <c r="AN19" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AO19" s="1" t="n"/>
       <c r="AP19" s="1" t="n"/>
       <c r="AQ19" s="1" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="inlineStr">
+      <c r="A20" s="14" t="inlineStr">
         <is>
           <t>2021-03-19</t>
         </is>
       </c>
-      <c r="B20" s="12" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="12" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="12" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="12" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="12" t="n"/>
-      <c r="K20" s="12" t="n"/>
-      <c r="L20" s="12" t="n"/>
-      <c r="M20" s="12" t="n"/>
-      <c r="N20" s="13" t="inlineStr">
+      <c r="B20" s="14" t="n"/>
+      <c r="C20" s="14" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="14" t="n"/>
+      <c r="F20" s="14" t="n"/>
+      <c r="G20" s="14" t="n"/>
+      <c r="H20" s="14" t="n"/>
+      <c r="I20" s="14" t="n"/>
+      <c r="J20" s="14" t="n"/>
+      <c r="K20" s="14" t="n"/>
+      <c r="L20" s="14" t="n"/>
+      <c r="M20" s="14" t="n"/>
+      <c r="N20" s="17" t="inlineStr">
+        <is>
+          <t>Sofash bakut night 1</t>
+        </is>
+      </c>
+      <c r="O20" s="14" t="n"/>
+      <c r="P20" s="20" t="inlineStr">
+        <is>
+          <t>Sofash bakut day 2</t>
+        </is>
+      </c>
+      <c r="Q20" s="19" t="inlineStr">
+        <is>
+          <t>Sofash bakut day 1</t>
+        </is>
+      </c>
+      <c r="R20" s="14" t="n"/>
+      <c r="S20" s="14" t="n"/>
+      <c r="T20" s="14" t="n"/>
+      <c r="U20" s="14" t="n"/>
+      <c r="V20" s="14" t="n"/>
+      <c r="W20" s="14" t="n"/>
+      <c r="X20" s="14" t="n"/>
+      <c r="Y20" s="14" t="n"/>
+      <c r="Z20" s="14" t="n"/>
+      <c r="AA20" s="14" t="n"/>
+      <c r="AB20" s="16" t="inlineStr">
         <is>
           <t>Sofash bakut night 2</t>
         </is>
       </c>
-      <c r="O20" s="12" t="n"/>
-      <c r="P20" s="12" t="n"/>
-      <c r="Q20" s="15" t="inlineStr">
+      <c r="AC20" s="14" t="n"/>
+      <c r="AD20" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sofash Equip night </t>
+        </is>
+      </c>
+      <c r="AE20" s="14" t="n"/>
+      <c r="AF20" s="14" t="n"/>
+      <c r="AG20" s="14" t="n"/>
+      <c r="AH20" s="14" t="n"/>
+      <c r="AI20" s="14" t="n"/>
+      <c r="AJ20" s="15" t="inlineStr">
         <is>
           <t>Sofash production</t>
         </is>
       </c>
-      <c r="R20" s="12" t="n"/>
-      <c r="S20" s="12" t="n"/>
-      <c r="T20" s="12" t="n"/>
-      <c r="U20" s="12" t="n"/>
-      <c r="V20" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sofash Equip night </t>
-        </is>
-      </c>
-      <c r="W20" s="12" t="n"/>
-      <c r="X20" s="19" t="inlineStr">
-        <is>
-          <t>Sofash bakut day 1</t>
-        </is>
-      </c>
-      <c r="Y20" s="16" t="inlineStr">
-        <is>
-          <t>Sofash bakut night 1</t>
-        </is>
-      </c>
-      <c r="Z20" s="17" t="inlineStr">
+      <c r="AK20" s="14" t="n"/>
+      <c r="AL20" s="14" t="n"/>
+      <c r="AM20" s="14" t="n"/>
+      <c r="AN20" s="14" t="n"/>
+      <c r="AO20" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Sofash Equip day </t>
         </is>
       </c>
-      <c r="AA20" s="12" t="n"/>
-      <c r="AB20" s="12" t="n"/>
-      <c r="AC20" s="12" t="n"/>
-      <c r="AD20" s="12" t="n"/>
-      <c r="AE20" s="12" t="n"/>
-      <c r="AF20" s="12" t="n"/>
-      <c r="AG20" s="18" t="inlineStr">
-        <is>
-          <t>Sofash bakut day 2</t>
-        </is>
-      </c>
-      <c r="AH20" s="12" t="n"/>
-      <c r="AI20" s="12" t="n"/>
-      <c r="AJ20" s="12" t="n"/>
-      <c r="AK20" s="12" t="n"/>
-      <c r="AL20" s="12" t="n"/>
-      <c r="AM20" s="12" t="n"/>
-      <c r="AN20" s="12" t="n"/>
-      <c r="AO20" s="12" t="n"/>
-      <c r="AP20" s="12" t="n"/>
-      <c r="AQ20" s="12" t="n"/>
+      <c r="AP20" s="14" t="n"/>
+      <c r="AQ20" s="14" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="inlineStr">
+      <c r="A21" s="14" t="inlineStr">
         <is>
           <t>2021-03-20</t>
         </is>
       </c>
-      <c r="B21" s="12" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="12" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="12" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="12" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="12" t="n"/>
-      <c r="K21" s="12" t="n"/>
-      <c r="L21" s="12" t="n"/>
-      <c r="M21" s="12" t="n"/>
-      <c r="N21" s="13" t="inlineStr">
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="14" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="14" t="n"/>
+      <c r="F21" s="14" t="n"/>
+      <c r="G21" s="14" t="n"/>
+      <c r="H21" s="14" t="n"/>
+      <c r="I21" s="14" t="n"/>
+      <c r="J21" s="14" t="n"/>
+      <c r="K21" s="14" t="n"/>
+      <c r="L21" s="14" t="n"/>
+      <c r="M21" s="14" t="n"/>
+      <c r="N21" s="17" t="inlineStr">
+        <is>
+          <t>Sofash bakut night 1</t>
+        </is>
+      </c>
+      <c r="O21" s="14" t="n"/>
+      <c r="P21" s="20" t="inlineStr">
+        <is>
+          <t>Sofash bakut day 2</t>
+        </is>
+      </c>
+      <c r="Q21" s="19" t="inlineStr">
+        <is>
+          <t>Sofash bakut day 1</t>
+        </is>
+      </c>
+      <c r="R21" s="14" t="n"/>
+      <c r="S21" s="14" t="n"/>
+      <c r="T21" s="14" t="n"/>
+      <c r="U21" s="14" t="n"/>
+      <c r="V21" s="14" t="n"/>
+      <c r="W21" s="14" t="n"/>
+      <c r="X21" s="14" t="n"/>
+      <c r="Y21" s="14" t="n"/>
+      <c r="Z21" s="14" t="n"/>
+      <c r="AA21" s="14" t="n"/>
+      <c r="AB21" s="16" t="inlineStr">
         <is>
           <t>Sofash bakut night 2</t>
         </is>
       </c>
-      <c r="O21" s="12" t="n"/>
-      <c r="P21" s="12" t="n"/>
-      <c r="Q21" s="15" t="inlineStr">
+      <c r="AC21" s="14" t="n"/>
+      <c r="AD21" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sofash Equip night </t>
+        </is>
+      </c>
+      <c r="AE21" s="14" t="n"/>
+      <c r="AF21" s="14" t="n"/>
+      <c r="AG21" s="14" t="n"/>
+      <c r="AH21" s="14" t="n"/>
+      <c r="AI21" s="14" t="n"/>
+      <c r="AJ21" s="15" t="inlineStr">
         <is>
           <t>Sofash production</t>
         </is>
       </c>
-      <c r="R21" s="12" t="n"/>
-      <c r="S21" s="12" t="n"/>
-      <c r="T21" s="12" t="n"/>
-      <c r="U21" s="12" t="n"/>
-      <c r="V21" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sofash Equip night </t>
-        </is>
-      </c>
-      <c r="W21" s="12" t="n"/>
-      <c r="X21" s="19" t="inlineStr">
-        <is>
-          <t>Sofash bakut day 1</t>
-        </is>
-      </c>
-      <c r="Y21" s="16" t="inlineStr">
-        <is>
-          <t>Sofash bakut night 1</t>
-        </is>
-      </c>
-      <c r="Z21" s="17" t="inlineStr">
+      <c r="AK21" s="14" t="n"/>
+      <c r="AL21" s="14" t="n"/>
+      <c r="AM21" s="14" t="n"/>
+      <c r="AN21" s="14" t="n"/>
+      <c r="AO21" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">Sofash Equip day </t>
         </is>
       </c>
-      <c r="AA21" s="12" t="n"/>
-      <c r="AB21" s="12" t="n"/>
-      <c r="AC21" s="12" t="n"/>
-      <c r="AD21" s="12" t="n"/>
-      <c r="AE21" s="12" t="n"/>
-      <c r="AF21" s="12" t="n"/>
-      <c r="AG21" s="18" t="inlineStr">
-        <is>
-          <t>Sofash bakut day 2</t>
-        </is>
-      </c>
-      <c r="AH21" s="12" t="n"/>
-      <c r="AI21" s="12" t="n"/>
-      <c r="AJ21" s="12" t="n"/>
-      <c r="AK21" s="12" t="n"/>
-      <c r="AL21" s="12" t="n"/>
-      <c r="AM21" s="12" t="n"/>
-      <c r="AN21" s="12" t="n"/>
-      <c r="AO21" s="12" t="n"/>
-      <c r="AP21" s="12" t="n"/>
-      <c r="AQ21" s="12" t="n"/>
+      <c r="AP21" s="14" t="n"/>
+      <c r="AQ21" s="14" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2461,44 +2663,64 @@
           <t>2021-03-21</t>
         </is>
       </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
-      <c r="G22" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="n"/>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="L22" s="6" t="inlineStr">
         <is>
           <t>bakut night 1</t>
         </is>
       </c>
-      <c r="K22" s="1" t="n"/>
-      <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n"/>
-      <c r="N22" s="1" t="n"/>
-      <c r="O22" s="1" t="n"/>
-      <c r="P22" s="1" t="n"/>
-      <c r="Q22" s="1" t="n"/>
+      <c r="N22" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="O22" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="P22" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="Q22" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="R22" s="1" t="n"/>
-      <c r="S22" s="11" t="inlineStr">
+      <c r="S22" s="9" t="inlineStr">
         <is>
           <t>equipment night</t>
         </is>
@@ -2506,24 +2728,24 @@
       <c r="T22" s="1" t="n"/>
       <c r="U22" s="1" t="n"/>
       <c r="V22" s="1" t="n"/>
-      <c r="W22" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="W22" s="1" t="n"/>
       <c r="X22" s="1" t="n"/>
       <c r="Y22" s="1" t="n"/>
       <c r="Z22" s="1" t="n"/>
-      <c r="AA22" s="1" t="n"/>
-      <c r="AB22" s="1" t="n"/>
-      <c r="AC22" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="AD22" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
+      <c r="AA22" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="AB22" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="AC22" s="1" t="n"/>
+      <c r="AD22" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
       <c r="AE22" s="1" t="n"/>
@@ -2531,12 +2753,24 @@
       <c r="AG22" s="1" t="n"/>
       <c r="AH22" s="1" t="n"/>
       <c r="AI22" s="1" t="n"/>
-      <c r="AJ22" s="1" t="n"/>
-      <c r="AK22" s="1" t="n"/>
+      <c r="AJ22" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="AK22" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="AL22" s="1" t="n"/>
       <c r="AM22" s="1" t="n"/>
       <c r="AN22" s="1" t="n"/>
-      <c r="AO22" s="1" t="n"/>
+      <c r="AO22" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="AP22" s="1" t="n"/>
       <c r="AQ22" s="1" t="n"/>
     </row>
@@ -2546,74 +2780,86 @@
           <t>2021-03-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">CLANING THE TAHAK </t>
         </is>
       </c>
-      <c r="D23" s="1" t="n"/>
-      <c r="E23" s="8" t="inlineStr">
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="K23" s="1" t="n"/>
+      <c r="L23" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="N23" s="1" t="n"/>
+      <c r="O23" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="P23" s="4" t="inlineStr">
         <is>
           <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="F23" s="1" t="n"/>
-      <c r="G23" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="H23" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="n"/>
-      <c r="J23" s="1" t="n"/>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="L23" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="M23" s="1" t="n"/>
-      <c r="N23" s="1" t="n"/>
-      <c r="O23" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
-      <c r="P23" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
         </is>
       </c>
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
-      <c r="S23" s="1" t="n"/>
+      <c r="S23" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="T23" s="1" t="n"/>
       <c r="U23" s="1" t="n"/>
       <c r="V23" s="1" t="n"/>
       <c r="W23" s="1" t="n"/>
       <c r="X23" s="1" t="n"/>
-      <c r="Y23" s="1" t="n"/>
-      <c r="Z23" s="11" t="inlineStr">
+      <c r="Y23" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="Z23" s="9" t="inlineStr">
         <is>
           <t>equipment night</t>
         </is>
       </c>
-      <c r="AA23" s="1" t="n"/>
+      <c r="AA23" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="AB23" s="1" t="n"/>
       <c r="AC23" s="1" t="n"/>
       <c r="AD23" s="1" t="n"/>
-      <c r="AE23" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
+      <c r="AE23" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
         </is>
       </c>
       <c r="AF23" s="1" t="n"/>
@@ -2635,36 +2881,48 @@
           <t>2021-03-23</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CLANING THE TAHAK </t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>bakut day 1</t>
         </is>
       </c>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="n"/>
-      <c r="H24" s="1" t="n"/>
-      <c r="I24" s="3" t="inlineStr">
+      <c r="J24" s="1" t="n"/>
+      <c r="K24" s="3" t="inlineStr">
         <is>
           <t>bakut day 2</t>
         </is>
       </c>
-      <c r="J24" s="1" t="n"/>
-      <c r="K24" s="1" t="n"/>
       <c r="L24" s="1" t="n"/>
-      <c r="M24" s="1" t="n"/>
-      <c r="N24" s="1" t="n"/>
-      <c r="O24" s="7" t="inlineStr">
+      <c r="M24" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ftt </t>
+        </is>
+      </c>
+      <c r="N24" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="O24" s="11" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
@@ -2674,44 +2932,52 @@
       <c r="R24" s="1" t="n"/>
       <c r="S24" s="1" t="n"/>
       <c r="T24" s="1" t="n"/>
-      <c r="U24" s="1" t="n"/>
+      <c r="U24" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="V24" s="1" t="n"/>
-      <c r="W24" s="1" t="n"/>
-      <c r="X24" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="Y24" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="Z24" s="1" t="n"/>
+      <c r="W24" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="X24" s="1" t="n"/>
+      <c r="Y24" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="Z24" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="AA24" s="1" t="n"/>
       <c r="AB24" s="1" t="n"/>
       <c r="AC24" s="1" t="n"/>
       <c r="AD24" s="1" t="n"/>
-      <c r="AE24" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="AE24" s="1" t="n"/>
       <c r="AF24" s="1" t="n"/>
       <c r="AG24" s="1" t="n"/>
-      <c r="AH24" s="9" t="inlineStr">
+      <c r="AH24" s="1" t="n"/>
+      <c r="AI24" s="12" t="inlineStr">
         <is>
           <t>equipment day</t>
         </is>
       </c>
-      <c r="AI24" s="1" t="n"/>
       <c r="AJ24" s="1" t="n"/>
       <c r="AK24" s="1" t="n"/>
       <c r="AL24" s="1" t="n"/>
       <c r="AM24" s="1" t="n"/>
       <c r="AN24" s="1" t="n"/>
       <c r="AO24" s="1" t="n"/>
-      <c r="AP24" s="1" t="n"/>
+      <c r="AP24" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="AQ24" s="1" t="n"/>
     </row>
     <row r="25">
@@ -2720,40 +2986,44 @@
           <t>2021-03-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
+      <c r="C25" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="D25" s="1" t="n"/>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="F25" s="1" t="n"/>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="G25" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
         </is>
       </c>
       <c r="H25" s="1" t="n"/>
-      <c r="I25" s="1" t="n"/>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
       <c r="J25" s="1" t="n"/>
-      <c r="K25" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="K25" s="1" t="n"/>
       <c r="L25" s="1" t="n"/>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
-      <c r="N25" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="O25" s="7" t="inlineStr">
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="O25" s="11" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
@@ -2761,46 +3031,50 @@
       <c r="P25" s="1" t="n"/>
       <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
-      <c r="S25" s="1" t="n"/>
+      <c r="S25" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="T25" s="1" t="n"/>
       <c r="U25" s="1" t="n"/>
       <c r="V25" s="1" t="n"/>
-      <c r="W25" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
+      <c r="W25" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
       <c r="X25" s="1" t="n"/>
-      <c r="Y25" s="1" t="n"/>
+      <c r="Y25" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="Z25" s="1" t="n"/>
       <c r="AA25" s="1" t="n"/>
       <c r="AB25" s="1" t="n"/>
-      <c r="AC25" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="AC25" s="1" t="n"/>
       <c r="AD25" s="1" t="n"/>
       <c r="AE25" s="1" t="n"/>
-      <c r="AF25" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
+      <c r="AF25" s="1" t="n"/>
       <c r="AG25" s="1" t="n"/>
       <c r="AH25" s="1" t="n"/>
       <c r="AI25" s="1" t="n"/>
       <c r="AJ25" s="1" t="n"/>
       <c r="AK25" s="1" t="n"/>
-      <c r="AL25" s="1" t="n"/>
+      <c r="AL25" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AM25" s="1" t="n"/>
-      <c r="AN25" s="1" t="n"/>
+      <c r="AN25" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
       <c r="AO25" s="1" t="n"/>
-      <c r="AP25" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
+      <c r="AP25" s="1" t="n"/>
       <c r="AQ25" s="1" t="n"/>
     </row>
     <row r="26">
@@ -2809,65 +3083,81 @@
           <t>2021-03-25</t>
         </is>
       </c>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
         </is>
       </c>
       <c r="C26" s="1" t="n"/>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="n"/>
+      <c r="F26" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="G26" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="H26" s="1" t="n"/>
-      <c r="I26" s="1" t="n"/>
+      <c r="I26" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="J26" s="1" t="n"/>
       <c r="K26" s="1" t="n"/>
-      <c r="L26" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="L26" s="1" t="n"/>
       <c r="M26" s="1" t="n"/>
-      <c r="N26" s="1" t="n"/>
-      <c r="O26" s="1" t="n"/>
+      <c r="N26" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="O26" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="P26" s="1" t="n"/>
       <c r="Q26" s="1" t="n"/>
-      <c r="R26" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="S26" s="1" t="n"/>
-      <c r="T26" s="1" t="n"/>
+      <c r="R26" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="S26" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="T26" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="U26" s="1" t="n"/>
       <c r="V26" s="1" t="n"/>
       <c r="W26" s="1" t="n"/>
       <c r="X26" s="1" t="n"/>
-      <c r="Y26" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
+      <c r="Y26" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
       <c r="Z26" s="1" t="n"/>
       <c r="AA26" s="1" t="n"/>
-      <c r="AB26" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AB26" s="1" t="n"/>
       <c r="AC26" s="1" t="n"/>
       <c r="AD26" s="1" t="n"/>
       <c r="AE26" s="1" t="n"/>
@@ -2881,166 +3171,162 @@
       <c r="AM26" s="1" t="n"/>
       <c r="AN26" s="1" t="n"/>
       <c r="AO26" s="1" t="n"/>
-      <c r="AP26" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
+      <c r="AP26" s="1" t="n"/>
       <c r="AQ26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="inlineStr">
+      <c r="A27" s="14" t="inlineStr">
         <is>
           <t>2021-03-26</t>
         </is>
       </c>
-      <c r="B27" s="12" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="12" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="12" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="12" t="n"/>
-      <c r="I27" s="16" t="inlineStr">
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="14" t="n"/>
+      <c r="D27" s="14" t="n"/>
+      <c r="E27" s="14" t="n"/>
+      <c r="F27" s="14" t="n"/>
+      <c r="G27" s="14" t="n"/>
+      <c r="H27" s="14" t="n"/>
+      <c r="I27" s="14" t="n"/>
+      <c r="J27" s="14" t="n"/>
+      <c r="K27" s="14" t="n"/>
+      <c r="L27" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sofash Equip night </t>
+        </is>
+      </c>
+      <c r="M27" s="14" t="n"/>
+      <c r="N27" s="14" t="n"/>
+      <c r="O27" s="14" t="n"/>
+      <c r="P27" s="14" t="n"/>
+      <c r="Q27" s="14" t="n"/>
+      <c r="R27" s="14" t="n"/>
+      <c r="S27" s="14" t="n"/>
+      <c r="T27" s="17" t="inlineStr">
         <is>
           <t>Sofash bakut night 1</t>
         </is>
       </c>
-      <c r="J27" s="12" t="n"/>
-      <c r="K27" s="12" t="n"/>
-      <c r="L27" s="12" t="n"/>
-      <c r="M27" s="12" t="n"/>
-      <c r="N27" s="12" t="n"/>
-      <c r="O27" s="12" t="n"/>
-      <c r="P27" s="12" t="n"/>
-      <c r="Q27" s="19" t="inlineStr">
+      <c r="U27" s="14" t="n"/>
+      <c r="V27" s="14" t="n"/>
+      <c r="W27" s="14" t="n"/>
+      <c r="X27" s="14" t="n"/>
+      <c r="Y27" s="15" t="inlineStr">
+        <is>
+          <t>Sofash production</t>
+        </is>
+      </c>
+      <c r="Z27" s="14" t="n"/>
+      <c r="AA27" s="14" t="n"/>
+      <c r="AB27" s="16" t="inlineStr">
+        <is>
+          <t>Sofash bakut night 2</t>
+        </is>
+      </c>
+      <c r="AC27" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sofash Equip day </t>
+        </is>
+      </c>
+      <c r="AD27" s="14" t="n"/>
+      <c r="AE27" s="14" t="n"/>
+      <c r="AF27" s="19" t="inlineStr">
         <is>
           <t>Sofash bakut day 1</t>
         </is>
       </c>
-      <c r="R27" s="12" t="n"/>
-      <c r="S27" s="12" t="n"/>
-      <c r="T27" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sofash Equip night </t>
-        </is>
-      </c>
-      <c r="U27" s="12" t="n"/>
-      <c r="V27" s="12" t="n"/>
-      <c r="W27" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sofash Equip day </t>
-        </is>
-      </c>
-      <c r="X27" s="12" t="n"/>
-      <c r="Y27" s="12" t="n"/>
-      <c r="Z27" s="12" t="n"/>
-      <c r="AA27" s="18" t="inlineStr">
+      <c r="AG27" s="14" t="n"/>
+      <c r="AH27" s="14" t="n"/>
+      <c r="AI27" s="14" t="n"/>
+      <c r="AJ27" s="14" t="n"/>
+      <c r="AK27" s="14" t="n"/>
+      <c r="AL27" s="20" t="inlineStr">
         <is>
           <t>Sofash bakut day 2</t>
         </is>
       </c>
-      <c r="AB27" s="13" t="inlineStr">
-        <is>
-          <t>Sofash bakut night 2</t>
-        </is>
-      </c>
-      <c r="AC27" s="15" t="inlineStr">
-        <is>
-          <t>Sofash production</t>
-        </is>
-      </c>
-      <c r="AD27" s="12" t="n"/>
-      <c r="AE27" s="12" t="n"/>
-      <c r="AF27" s="12" t="n"/>
-      <c r="AG27" s="12" t="n"/>
-      <c r="AH27" s="12" t="n"/>
-      <c r="AI27" s="12" t="n"/>
-      <c r="AJ27" s="12" t="n"/>
-      <c r="AK27" s="12" t="n"/>
-      <c r="AL27" s="12" t="n"/>
-      <c r="AM27" s="12" t="n"/>
-      <c r="AN27" s="12" t="n"/>
-      <c r="AO27" s="12" t="n"/>
-      <c r="AP27" s="12" t="n"/>
-      <c r="AQ27" s="12" t="n"/>
+      <c r="AM27" s="14" t="n"/>
+      <c r="AN27" s="14" t="n"/>
+      <c r="AO27" s="14" t="n"/>
+      <c r="AP27" s="14" t="n"/>
+      <c r="AQ27" s="14" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="inlineStr">
+      <c r="A28" s="14" t="inlineStr">
         <is>
           <t>2021-03-27</t>
         </is>
       </c>
-      <c r="B28" s="12" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="12" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="12" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="12" t="n"/>
-      <c r="I28" s="16" t="inlineStr">
+      <c r="B28" s="14" t="n"/>
+      <c r="C28" s="14" t="n"/>
+      <c r="D28" s="14" t="n"/>
+      <c r="E28" s="14" t="n"/>
+      <c r="F28" s="14" t="n"/>
+      <c r="G28" s="14" t="n"/>
+      <c r="H28" s="14" t="n"/>
+      <c r="I28" s="14" t="n"/>
+      <c r="J28" s="14" t="n"/>
+      <c r="K28" s="14" t="n"/>
+      <c r="L28" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sofash Equip night </t>
+        </is>
+      </c>
+      <c r="M28" s="14" t="n"/>
+      <c r="N28" s="14" t="n"/>
+      <c r="O28" s="14" t="n"/>
+      <c r="P28" s="14" t="n"/>
+      <c r="Q28" s="14" t="n"/>
+      <c r="R28" s="14" t="n"/>
+      <c r="S28" s="14" t="n"/>
+      <c r="T28" s="17" t="inlineStr">
         <is>
           <t>Sofash bakut night 1</t>
         </is>
       </c>
-      <c r="J28" s="12" t="n"/>
-      <c r="K28" s="12" t="n"/>
-      <c r="L28" s="12" t="n"/>
-      <c r="M28" s="12" t="n"/>
-      <c r="N28" s="12" t="n"/>
-      <c r="O28" s="12" t="n"/>
-      <c r="P28" s="12" t="n"/>
-      <c r="Q28" s="19" t="inlineStr">
+      <c r="U28" s="14" t="n"/>
+      <c r="V28" s="14" t="n"/>
+      <c r="W28" s="14" t="n"/>
+      <c r="X28" s="14" t="n"/>
+      <c r="Y28" s="15" t="inlineStr">
+        <is>
+          <t>Sofash production</t>
+        </is>
+      </c>
+      <c r="Z28" s="14" t="n"/>
+      <c r="AA28" s="14" t="n"/>
+      <c r="AB28" s="16" t="inlineStr">
+        <is>
+          <t>Sofash bakut night 2</t>
+        </is>
+      </c>
+      <c r="AC28" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sofash Equip day </t>
+        </is>
+      </c>
+      <c r="AD28" s="14" t="n"/>
+      <c r="AE28" s="14" t="n"/>
+      <c r="AF28" s="19" t="inlineStr">
         <is>
           <t>Sofash bakut day 1</t>
         </is>
       </c>
-      <c r="R28" s="12" t="n"/>
-      <c r="S28" s="12" t="n"/>
-      <c r="T28" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sofash Equip night </t>
-        </is>
-      </c>
-      <c r="U28" s="12" t="n"/>
-      <c r="V28" s="12" t="n"/>
-      <c r="W28" s="17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sofash Equip day </t>
-        </is>
-      </c>
-      <c r="X28" s="12" t="n"/>
-      <c r="Y28" s="12" t="n"/>
-      <c r="Z28" s="12" t="n"/>
-      <c r="AA28" s="18" t="inlineStr">
+      <c r="AG28" s="14" t="n"/>
+      <c r="AH28" s="14" t="n"/>
+      <c r="AI28" s="14" t="n"/>
+      <c r="AJ28" s="14" t="n"/>
+      <c r="AK28" s="14" t="n"/>
+      <c r="AL28" s="20" t="inlineStr">
         <is>
           <t>Sofash bakut day 2</t>
         </is>
       </c>
-      <c r="AB28" s="13" t="inlineStr">
-        <is>
-          <t>Sofash bakut night 2</t>
-        </is>
-      </c>
-      <c r="AC28" s="15" t="inlineStr">
-        <is>
-          <t>Sofash production</t>
-        </is>
-      </c>
-      <c r="AD28" s="12" t="n"/>
-      <c r="AE28" s="12" t="n"/>
-      <c r="AF28" s="12" t="n"/>
-      <c r="AG28" s="12" t="n"/>
-      <c r="AH28" s="12" t="n"/>
-      <c r="AI28" s="12" t="n"/>
-      <c r="AJ28" s="12" t="n"/>
-      <c r="AK28" s="12" t="n"/>
-      <c r="AL28" s="12" t="n"/>
-      <c r="AM28" s="12" t="n"/>
-      <c r="AN28" s="12" t="n"/>
-      <c r="AO28" s="12" t="n"/>
-      <c r="AP28" s="12" t="n"/>
-      <c r="AQ28" s="12" t="n"/>
+      <c r="AM28" s="14" t="n"/>
+      <c r="AN28" s="14" t="n"/>
+      <c r="AO28" s="14" t="n"/>
+      <c r="AP28" s="14" t="n"/>
+      <c r="AQ28" s="14" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3048,83 +3334,107 @@
           <t>2021-03-28</t>
         </is>
       </c>
-      <c r="B29" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="D29" s="1" t="n"/>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CLANING THE TAHAK </t>
-        </is>
-      </c>
-      <c r="F29" s="1" t="n"/>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="F29" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
       <c r="G29" s="1" t="n"/>
-      <c r="H29" s="1" t="n"/>
+      <c r="H29" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="I29" s="1" t="n"/>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="J29" s="1" t="n"/>
       <c r="K29" s="1" t="n"/>
-      <c r="L29" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="M29" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="N29" s="6" t="inlineStr">
+      <c r="L29" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="M29" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
+      <c r="N29" s="1" t="n"/>
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="O29" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
         </is>
       </c>
       <c r="P29" s="1" t="n"/>
       <c r="Q29" s="1" t="n"/>
-      <c r="R29" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="S29" s="1" t="n"/>
-      <c r="T29" s="1" t="n"/>
+      <c r="R29" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="S29" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
+      <c r="T29" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="U29" s="1" t="n"/>
       <c r="V29" s="1" t="n"/>
       <c r="W29" s="1" t="n"/>
-      <c r="X29" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
-      <c r="Y29" s="1" t="n"/>
+      <c r="X29" s="1" t="n"/>
+      <c r="Y29" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="Z29" s="1" t="n"/>
       <c r="AA29" s="1" t="n"/>
-      <c r="AB29" s="1" t="n"/>
-      <c r="AC29" s="1" t="n"/>
+      <c r="AB29" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="AC29" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="AD29" s="1" t="n"/>
       <c r="AE29" s="1" t="n"/>
-      <c r="AF29" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
+      <c r="AF29" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
       <c r="AG29" s="1" t="n"/>
       <c r="AH29" s="1" t="n"/>
-      <c r="AI29" s="1" t="n"/>
+      <c r="AI29" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
       <c r="AJ29" s="1" t="n"/>
       <c r="AK29" s="1" t="n"/>
-      <c r="AL29" s="1" t="n"/>
+      <c r="AL29" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="AM29" s="1" t="n"/>
       <c r="AN29" s="1" t="n"/>
       <c r="AO29" s="1" t="n"/>
@@ -3137,85 +3447,101 @@
           <t>2021-03-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">CLANING THE TAHAK </t>
         </is>
       </c>
-      <c r="D30" s="1" t="n"/>
-      <c r="E30" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="F30" s="1" t="n"/>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="H30" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="n"/>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
-        </is>
-      </c>
-      <c r="K30" s="1" t="n"/>
+      <c r="K30" s="8" t="inlineStr">
+        <is>
+          <t>marzuk</t>
+        </is>
+      </c>
       <c r="L30" s="1" t="n"/>
-      <c r="M30" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
+      <c r="M30" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
       <c r="N30" s="1" t="n"/>
-      <c r="O30" s="1" t="n"/>
+      <c r="O30" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="P30" s="1" t="n"/>
       <c r="Q30" s="1" t="n"/>
-      <c r="R30" s="1" t="n"/>
-      <c r="S30" s="1" t="n"/>
+      <c r="R30" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="S30" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="T30" s="1" t="n"/>
       <c r="U30" s="1" t="n"/>
-      <c r="V30" s="1" t="n"/>
-      <c r="W30" s="1" t="n"/>
-      <c r="X30" s="1" t="n"/>
-      <c r="Y30" s="8" t="inlineStr">
+      <c r="V30" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
+        </is>
+      </c>
+      <c r="W30" s="4" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
       </c>
+      <c r="X30" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="Y30" s="1" t="n"/>
       <c r="Z30" s="1" t="n"/>
       <c r="AA30" s="1" t="n"/>
       <c r="AB30" s="1" t="n"/>
-      <c r="AC30" s="1" t="n"/>
+      <c r="AC30" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="AD30" s="1" t="n"/>
       <c r="AE30" s="1" t="n"/>
-      <c r="AF30" s="1" t="n"/>
+      <c r="AF30" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="AG30" s="1" t="n"/>
-      <c r="AH30" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
+      <c r="AH30" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
         </is>
       </c>
       <c r="AI30" s="1" t="n"/>
       <c r="AJ30" s="1" t="n"/>
       <c r="AK30" s="1" t="n"/>
       <c r="AL30" s="1" t="n"/>
-      <c r="AM30" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
-      <c r="AN30" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="AM30" s="1" t="n"/>
+      <c r="AN30" s="1" t="n"/>
       <c r="AO30" s="1" t="n"/>
       <c r="AP30" s="1" t="n"/>
       <c r="AQ30" s="1" t="n"/>
@@ -3226,73 +3552,85 @@
           <t>2021-03-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n"/>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="C31" s="1" t="n"/>
-      <c r="D31" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="10" t="inlineStr">
+        <is>
+          <t>eo production</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>sar poduction</t>
         </is>
       </c>
-      <c r="F31" s="10" t="inlineStr">
-        <is>
-          <t>eo production</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="n"/>
-      <c r="H31" s="1" t="n"/>
-      <c r="I31" s="1" t="n"/>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="I31" s="9" t="inlineStr">
+        <is>
+          <t>equipment night</t>
+        </is>
+      </c>
       <c r="J31" s="1" t="n"/>
       <c r="K31" s="1" t="n"/>
-      <c r="L31" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
+      <c r="L31" s="1" t="n"/>
       <c r="M31" s="1" t="n"/>
       <c r="N31" s="1" t="n"/>
-      <c r="O31" s="7" t="inlineStr">
+      <c r="O31" s="11" t="inlineStr">
         <is>
           <t>wv equipment</t>
         </is>
       </c>
       <c r="P31" s="1" t="n"/>
-      <c r="Q31" s="1" t="n"/>
-      <c r="R31" s="1" t="n"/>
+      <c r="Q31" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
+      <c r="R31" s="6" t="inlineStr">
+        <is>
+          <t>bakut night 1</t>
+        </is>
+      </c>
       <c r="S31" s="1" t="n"/>
       <c r="T31" s="1" t="n"/>
       <c r="U31" s="1" t="n"/>
       <c r="V31" s="1" t="n"/>
       <c r="W31" s="1" t="n"/>
-      <c r="X31" s="5" t="inlineStr">
-        <is>
-          <t>bakut night 1</t>
+      <c r="X31" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
         </is>
       </c>
       <c r="Y31" s="1" t="n"/>
-      <c r="Z31" s="11" t="inlineStr">
-        <is>
-          <t>equipment night</t>
-        </is>
-      </c>
+      <c r="Z31" s="1" t="n"/>
       <c r="AA31" s="1" t="n"/>
       <c r="AB31" s="1" t="n"/>
-      <c r="AC31" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
-        </is>
-      </c>
-      <c r="AD31" s="9" t="inlineStr">
-        <is>
-          <t>equipment day</t>
-        </is>
-      </c>
+      <c r="AC31" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="AD31" s="1" t="n"/>
       <c r="AE31" s="1" t="n"/>
-      <c r="AF31" s="1" t="n"/>
+      <c r="AF31" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="AG31" s="1" t="n"/>
       <c r="AH31" s="1" t="n"/>
       <c r="AI31" s="1" t="n"/>
@@ -3311,39 +3649,43 @@
           <t>2021-03-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>bakut day 2</t>
+        </is>
+      </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>equipment day</t>
-        </is>
-      </c>
-      <c r="D32" s="11" t="inlineStr">
-        <is>
           <t>equipment night</t>
         </is>
       </c>
-      <c r="E32" s="10" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>bakut night 2</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>sar poduction</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="inlineStr">
         <is>
           <t>eo production</t>
         </is>
       </c>
-      <c r="F32" s="8" t="inlineStr">
-        <is>
-          <t>sar poduction</t>
-        </is>
-      </c>
       <c r="G32" s="1" t="n"/>
-      <c r="H32" s="4" t="inlineStr">
-        <is>
-          <t>bakut day 1</t>
-        </is>
-      </c>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t>bakut day 2</t>
-        </is>
-      </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="H32" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="I32" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="J32" s="6" t="inlineStr">
         <is>
           <t>bakut night 1</t>
         </is>
@@ -3352,14 +3694,18 @@
       <c r="L32" s="1" t="n"/>
       <c r="M32" s="1" t="n"/>
       <c r="N32" s="1" t="n"/>
-      <c r="O32" s="6" t="inlineStr">
-        <is>
-          <t>bakut night 2</t>
+      <c r="O32" s="11" t="inlineStr">
+        <is>
+          <t>wv equipment</t>
         </is>
       </c>
       <c r="P32" s="1" t="n"/>
       <c r="Q32" s="1" t="n"/>
-      <c r="R32" s="1" t="n"/>
+      <c r="R32" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
       <c r="S32" s="1" t="n"/>
       <c r="T32" s="1" t="n"/>
       <c r="U32" s="1" t="n"/>
@@ -3369,14 +3715,14 @@
       <c r="Y32" s="1" t="n"/>
       <c r="Z32" s="1" t="n"/>
       <c r="AA32" s="1" t="n"/>
-      <c r="AB32" s="7" t="inlineStr">
-        <is>
-          <t>wv equipment</t>
-        </is>
-      </c>
+      <c r="AB32" s="1" t="n"/>
       <c r="AC32" s="1" t="n"/>
       <c r="AD32" s="1" t="n"/>
-      <c r="AE32" s="1" t="n"/>
+      <c r="AE32" s="2" t="inlineStr">
+        <is>
+          <t>bakut day 1</t>
+        </is>
+      </c>
       <c r="AF32" s="1" t="n"/>
       <c r="AG32" s="1" t="n"/>
       <c r="AH32" s="1" t="n"/>
@@ -3386,9 +3732,74 @@
       <c r="AL32" s="1" t="n"/>
       <c r="AM32" s="1" t="n"/>
       <c r="AN32" s="1" t="n"/>
-      <c r="AO32" s="1" t="n"/>
+      <c r="AO32" s="12" t="inlineStr">
+        <is>
+          <t>equipment day</t>
+        </is>
+      </c>
       <c r="AP32" s="1" t="n"/>
       <c r="AQ32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="D33" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="13" t="inlineStr">
+        <is>
+          <t>MALAM</t>
+        </is>
+      </c>
+      <c r="K33" s="1" t="n"/>
+      <c r="L33" s="1" t="n"/>
+      <c r="M33" s="1" t="n"/>
+      <c r="N33" s="1" t="n"/>
+      <c r="O33" s="1" t="n"/>
+      <c r="P33" s="1" t="n"/>
+      <c r="Q33" s="1" t="n"/>
+      <c r="R33" s="1" t="n"/>
+      <c r="S33" s="1" t="n"/>
+      <c r="T33" s="1" t="n"/>
+      <c r="U33" s="1" t="n"/>
+      <c r="V33" s="1" t="n"/>
+      <c r="W33" s="1" t="n"/>
+      <c r="X33" s="1" t="n"/>
+      <c r="Y33" s="1" t="n"/>
+      <c r="Z33" s="1" t="n"/>
+      <c r="AA33" s="1" t="n"/>
+      <c r="AB33" s="1" t="n"/>
+      <c r="AC33" s="1" t="n"/>
+      <c r="AD33" s="1" t="n"/>
+      <c r="AE33" s="1" t="n"/>
+      <c r="AF33" s="1" t="n"/>
+      <c r="AG33" s="1" t="n"/>
+      <c r="AH33" s="1" t="n"/>
+      <c r="AI33" s="1" t="n"/>
+      <c r="AJ33" s="1" t="n"/>
+      <c r="AK33" s="1" t="n"/>
+      <c r="AL33" s="1" t="n"/>
+      <c r="AM33" s="1" t="n"/>
+      <c r="AN33" s="1" t="n"/>
+      <c r="AO33" s="1" t="n"/>
+      <c r="AP33" s="1" t="n"/>
+      <c r="AQ33" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
